--- a/Output/roaming_impact_reports_per_acct/Melaleuca_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Melaleuca_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="101" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
@@ -483,49 +483,49 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 3.3.3.854</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1358</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>86</v>
+        <v>66.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1327</t>
+          <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 3.3.3.854</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1723</v>
+        <v>233</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>87.8</v>
+        <v>86.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.70.0.6</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1327</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>256</v>
+        <v>1014</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>93.59999999999999</v>
+        <v>89.5</v>
       </c>
     </row>
     <row r="6">
@@ -535,154 +535,154 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>96.40000000000001</v>
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.240.0.6</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>16</v>
+        <v>327</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>96.8</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>360</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>96.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>97</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.0.3</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>15</v>
+        <v>537</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>97.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>97.5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.240.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>97.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.80.0.7</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>98.09999999999999</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>6</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>917</v>
+        <v>24</v>
       </c>
       <c r="D15" s="4" t="n">
         <v>98.09999999999999</v>
@@ -691,23 +691,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.60.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
@@ -717,20 +717,20 @@
         <v>5</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>1219</v>
+        <v>49</v>
       </c>
       <c r="D18" s="4" t="n">
         <v>98.5</v>
@@ -739,14 +739,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1229</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1303</t>
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4" t="n">
         <v>98.5</v>
@@ -755,14 +755,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.60.0.10</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.1.2</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D20" s="4" t="n">
         <v>98.59999999999999</v>
@@ -771,139 +771,142 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.250.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="4" t="n">
-        <v>21</v>
-      </c>
       <c r="D22" s="4" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.230.0.8</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D23" s="4" t="n">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.80.0.7</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4" t="n">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D25" s="4" t="n">
-        <v>98.90000000000001</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B26" s="5" t="n">
-        <v>84</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>6838</v>
-      </c>
-    </row>
+      <c r="B23" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
     <row r="27"/>
     <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Adapter-Driver</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Total Samples</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr"/>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>Good Roaming Calculation (%)</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>Driver Vintage</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="n">
+        <v>226852</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v/>
+      </c>
+    </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
-        </is>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="n">
+        <v>34181</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
-        </is>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="n">
+        <v>276085</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1277</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>19893</v>
+        <v>625139</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
@@ -916,15 +919,15 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>61902</v>
+        <v>96526</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E35" s="4" t="n">
         <v/>
@@ -933,15 +936,15 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>10451</v>
+        <v>328411</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E36" s="4" t="n">
         <v/>
@@ -950,15 +953,15 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>30446</v>
+        <v>143808</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E37" s="4" t="n">
         <v/>
@@ -967,15 +970,15 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>156943</v>
+        <v>287148</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E38" s="4" t="n">
         <v/>
@@ -984,39 +987,35 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>47477</v>
+        <v>69578</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1255</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>392601</v>
+        <v>23159</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E40" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
-        </is>
+      <c r="E40" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="41">
@@ -1026,216 +1025,194 @@
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>4931414</v>
+        <v>4931894</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>2024-09-25</t>
-        </is>
+      <c r="E41" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1229</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>140984</v>
+        <v>10661</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t>2024-08-26</t>
-        </is>
+      <c r="E42" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>52237</v>
+        <v>56018</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>2024-08-13</t>
-        </is>
+      <c r="E43" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>18721</v>
+        <v>34244</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t>2024-07-23</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>27295</v>
+        <v>27599</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E45" s="4" t="inlineStr">
-        <is>
-          <t>2024-04-13</t>
-        </is>
+      <c r="E45" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>275061</v>
+        <v>191877</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E46" s="4" t="inlineStr">
-        <is>
-          <t>2024-03-19</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>612373</v>
+        <v>262523</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>2024-01-20</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>12096</v>
+        <v>10451</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
-          <t>2023-12-19</t>
-        </is>
+      <c r="E48" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>44160</v>
+        <v>61902</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>2023-11-28</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>97122</v>
+        <v>67111</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>2023-10-30</t>
-        </is>
+      <c r="E50" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>69578</v>
+        <v>13016</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E51" s="4" t="inlineStr">
-        <is>
-          <t>2023-08-14</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>78331</v>
+        <v>684542</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" s="4" t="n">
@@ -1243,94 +1220,94 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>319198</v>
+        <v>53193</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2025-01-01</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>226852</v>
+        <v>27295</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2025-01-01</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B55" s="6" t="n">
-        <v>444399</v>
+        <v>442178</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
         </is>
       </c>
       <c r="B56" s="6" t="n">
-        <v>143214</v>
+        <v>156943</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2024-08-13</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B57" s="6" t="n">
-        <v>287148</v>
+        <v>18721</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" s="4" t="n">
@@ -1338,18 +1315,18 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B58" s="6" t="n">
-        <v>25078</v>
+        <v>66577</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" s="4" t="n">
@@ -1357,37 +1334,37 @@
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2024-05-09</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
         </is>
       </c>
       <c r="B59" s="6" t="n">
-        <v>19083</v>
+        <v>59635</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2024-04-13</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
         </is>
       </c>
       <c r="B60" s="6" t="n">
-        <v>10661</v>
+        <v>52237</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" s="4" t="n">
@@ -1395,75 +1372,75 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2024-04-13</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 22.30.1.1339</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B61" s="6" t="n">
-        <v>10923</v>
+        <v>18738</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B62" s="6" t="n">
-        <v>96526</v>
+        <v>13533</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2023-12-19</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
         </is>
       </c>
       <c r="B63" s="6" t="n">
-        <v>3573726</v>
+        <v>108823</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2023-12-19</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1255</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B64" s="6" t="n">
-        <v>23060</v>
+        <v>78331</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" s="4" t="n">
@@ -1471,37 +1448,37 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B65" s="6" t="n">
-        <v>149961</v>
+        <v>109036</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
         </is>
       </c>
       <c r="B66" s="6" t="n">
-        <v>14239</v>
+        <v>19083</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" s="4" t="n">
@@ -1509,37 +1486,37 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B67" s="6" t="n">
-        <v>254702</v>
+        <v>154405</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+          <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 22.30.1.1339</t>
         </is>
       </c>
       <c r="B68" s="6" t="n">
-        <v>86045</v>
+        <v>10923</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" s="4" t="n">
@@ -1547,37 +1524,37 @@
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-08-18</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B69" s="6" t="n">
-        <v>25808</v>
+        <v>3650830</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B70" s="6" t="n">
-        <v>12988</v>
+        <v>14239</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" s="4" t="n">
@@ -1585,18 +1562,18 @@
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B71" s="6" t="n">
-        <v>177476</v>
+        <v>265400</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" s="4" t="n">
@@ -1604,45 +1581,45 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B72" s="6" t="n">
-        <v>18738</v>
+        <v>12988</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B73" s="6" t="n">
-        <v>109036</v>
+        <v>42024</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1630,7 @@
         </is>
       </c>
       <c r="B74" s="6" t="n">
-        <v>96304</v>
+        <v>99547</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" s="4" t="n">
@@ -1668,68 +1645,68 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B75" s="6" t="n">
-        <v>42024</v>
+        <v>77849</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1216</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B76" s="6" t="n">
-        <v>36106</v>
+        <v>44160</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>2021-12-23</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B77" s="6" t="n">
-        <v>74604</v>
+        <v>75637</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B78" s="6" t="n">
-        <v>75637</v>
+        <v>93224</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" s="4" t="n">
@@ -1763,11 +1740,11 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B80" s="6" t="n">
-        <v>33050</v>
+        <v>450036</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" s="4" t="n">
@@ -1786,7 +1763,7 @@
         </is>
       </c>
       <c r="B81" s="6" t="n">
-        <v>1538614</v>
+        <v>1543020</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" s="4" t="n">
@@ -1805,7 +1782,7 @@
         </is>
       </c>
       <c r="B82" s="6" t="n">
-        <v>159043</v>
+        <v>169789</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" s="4" t="n">
@@ -1824,7 +1801,7 @@
         </is>
       </c>
       <c r="B83" s="6" t="n">
-        <v>235693</v>
+        <v>238746</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" s="4" t="n">
@@ -1839,11 +1816,11 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B84" s="6" t="n">
-        <v>66339</v>
+        <v>26241</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" s="4" t="n">
@@ -1862,7 +1839,7 @@
         </is>
       </c>
       <c r="B85" s="6" t="n">
-        <v>321210</v>
+        <v>321983</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" s="4" t="n">
@@ -1877,49 +1854,49 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B86" s="6" t="n">
-        <v>63516</v>
+        <v>15730</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B87" s="6" t="n">
-        <v>15730</v>
+        <v>95547</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
         </is>
       </c>
       <c r="B88" s="6" t="n">
-        <v>95547</v>
+        <v>443012</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" s="4" t="n">
@@ -1938,7 +1915,7 @@
         </is>
       </c>
       <c r="B89" s="6" t="n">
-        <v>119793</v>
+        <v>121232</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" s="4" t="n">
@@ -1972,30 +1949,30 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1216</t>
         </is>
       </c>
       <c r="B91" s="6" t="n">
-        <v>36791</v>
+        <v>36106</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
         </is>
       </c>
       <c r="B92" s="6" t="n">
-        <v>677521</v>
+        <v>36791</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" s="4" t="n">
@@ -2003,18 +1980,18 @@
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2020-07-20</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B93" s="6" t="n">
-        <v>262523</v>
+        <v>25808</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" s="4" t="n">
@@ -2029,49 +2006,49 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B94" s="6" t="n">
-        <v>67365</v>
+        <v>209593</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B95" s="6" t="n">
-        <v>107862</v>
+        <v>178916</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B96" s="6" t="n">
-        <v>26241</v>
+        <v>67365</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" s="4" t="n">
@@ -2079,18 +2056,18 @@
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B97" s="6" t="n">
-        <v>56018</v>
+        <v>97122</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" s="4" t="n">
@@ -2098,18 +2075,18 @@
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B98" s="6" t="n">
-        <v>307252</v>
+        <v>113652</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" s="4" t="n">
@@ -2117,41 +2094,41 @@
       </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
         </is>
       </c>
       <c r="B99" s="6" t="n">
-        <v>88435</v>
+        <v>308468</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B100" s="6" t="n">
-        <v>139730</v>
+        <v>88435</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
@@ -2162,11 +2139,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B101" s="6" t="n">
-        <v>194659</v>
+        <v>139827</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" s="4" t="n">
@@ -2181,11 +2158,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
         </is>
       </c>
       <c r="B102" s="6" t="n">
-        <v>34718</v>
+        <v>194659</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" s="4" t="n">
@@ -2193,18 +2170,18 @@
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
         </is>
       </c>
       <c r="B103" s="6" t="n">
-        <v>546718</v>
+        <v>34718</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" s="4" t="n">
@@ -2212,18 +2189,18 @@
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
+          <t>2019-08-14</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B104" s="6" t="n">
-        <v>13016</v>
+        <v>546751</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" s="4" t="n">
@@ -2231,18 +2208,18 @@
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2019-08-10</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B105" s="6" t="n">
-        <v>434869</v>
+        <v>46270</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" s="4" t="n">
@@ -2250,18 +2227,18 @@
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>2019-07-06</t>
+          <t>2019-04-23</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
         </is>
       </c>
       <c r="B106" s="6" t="n">
-        <v>44271</v>
+        <v>108633</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" s="4" t="n">
@@ -2269,91 +2246,15 @@
       </c>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
-        </is>
-      </c>
-      <c r="B107" s="6" t="n">
-        <v>108633</v>
-      </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E107" s="4" t="inlineStr">
-        <is>
           <t>2019-04-06</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
-        </is>
-      </c>
-      <c r="B108" s="6" t="n">
-        <v>191877</v>
-      </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E108" s="4" t="inlineStr">
-        <is>
-          <t>2019-03-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
-        </is>
-      </c>
-      <c r="B109" s="6" t="n">
-        <v>52166</v>
-      </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E109" s="4" t="inlineStr">
-        <is>
-          <t>2018-11-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
-        </is>
-      </c>
-      <c r="B110" s="6" t="n">
-        <v>108823</v>
-      </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E110" s="4" t="inlineStr">
-        <is>
-          <t>2018-10-31</t>
-        </is>
-      </c>
-    </row>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
     <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Melaleuca_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Melaleuca_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,103 +515,103 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1327</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1014</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>89.5</v>
+        <v>92.90000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.240.0.6</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>92.90000000000001</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.240.0.6</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>327</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>94.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1327</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>4</v>
+        <v>447</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>94.59999999999999</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>95.5</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>96.09999999999999</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
@@ -621,55 +621,55 @@
         <v>2</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>97</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.80.0.7</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>97.40000000000001</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.80.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>97.8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.1.2</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -691,175 +691,177 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.170.0.3</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1303</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>264</v>
+        <v>55</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1303</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.1.2</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.20.1.1</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C21" s="4" t="n">
-        <v>69</v>
-      </c>
-      <c r="D21" s="4" t="n">
-        <v>98.7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" s="4" t="n">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>61</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>2671</v>
-      </c>
-    </row>
+      <c r="B21" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="22"/>
+    <row r="23"/>
     <row r="24"/>
     <row r="25"/>
     <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Adapter-Driver</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Total Samples</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr"/>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>Good Roaming Calculation (%)</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>Driver Vintage</t>
+        </is>
+      </c>
+    </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
-        </is>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>156943</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
-        </is>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="n">
+        <v>10451</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>226852</v>
+        <v>61902</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E31" s="4" t="n">
         <v/>
@@ -878,360 +880,400 @@
       <c r="D32" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E32" s="4" t="n">
-        <v/>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>276085</v>
+        <v>54631</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E33" s="4" t="n">
-        <v/>
+        <v>100</v>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>625139</v>
+        <v>445055</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E34" s="4" t="n">
-        <v/>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>96526</v>
+        <v>4931894</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E35" s="4" t="n">
-        <v/>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>328411</v>
+        <v>52237</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E36" s="4" t="n">
-        <v/>
+        <v>100</v>
+      </c>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>143808</v>
+        <v>18721</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E37" s="4" t="n">
-        <v/>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>287148</v>
+        <v>27295</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E38" s="4" t="n">
-        <v/>
+        <v>100</v>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>69578</v>
+        <v>276085</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E39" s="4" t="n">
-        <v/>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1255</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>23159</v>
+        <v>625139</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E40" s="4" t="n">
-        <v/>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>4931894</v>
+        <v>13533</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E41" s="4" t="n">
-        <v/>
+        <v>100</v>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>2023-12-19</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>10661</v>
+        <v>44160</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E42" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>56018</v>
+        <v>97122</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E43" s="4" t="n">
-        <v/>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>34244</v>
+        <v>78331</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E44" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>27599</v>
+        <v>69578</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E45" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>191877</v>
+        <v>329845</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E46" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>262523</v>
+        <v>226852</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E47" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>10451</v>
+        <v>453273</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E48" s="4" t="n">
-        <v/>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>61902</v>
+        <v>143808</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E49" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E49" s="4" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>67111</v>
+        <v>287148</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E50" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>13016</v>
+        <v>27599</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E51" s="4" t="n">
-        <v/>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>684542</v>
+        <v>19083</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2022-08-30</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>53193</v>
+        <v>10661</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="4" t="n">
@@ -1239,18 +1281,18 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+          <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 22.30.1.1339</t>
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>27295</v>
+        <v>10923</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" s="4" t="n">
@@ -1258,18 +1300,18 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2022-08-18</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B55" s="6" t="n">
-        <v>442178</v>
+        <v>3650830</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" s="4" t="n">
@@ -1277,37 +1319,37 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B56" s="6" t="n">
-        <v>156943</v>
+        <v>96526</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1255</t>
         </is>
       </c>
       <c r="B57" s="6" t="n">
-        <v>18721</v>
+        <v>23159</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" s="4" t="n">
@@ -1315,18 +1357,18 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2022-07-04</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B58" s="6" t="n">
-        <v>66577</v>
+        <v>154405</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" s="4" t="n">
@@ -1334,75 +1376,75 @@
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B59" s="6" t="n">
-        <v>59635</v>
+        <v>14239</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B60" s="6" t="n">
-        <v>52237</v>
+        <v>265400</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B61" s="6" t="n">
-        <v>18738</v>
+        <v>12988</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B62" s="6" t="n">
-        <v>13533</v>
+        <v>25808</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" s="4" t="n">
@@ -1410,18 +1452,18 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B63" s="6" t="n">
-        <v>108823</v>
+        <v>94657</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" s="4" t="n">
@@ -1429,18 +1471,18 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B64" s="6" t="n">
-        <v>78331</v>
+        <v>178916</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" s="4" t="n">
@@ -1448,7 +1490,7 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
@@ -1467,56 +1509,56 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B66" s="6" t="n">
-        <v>19083</v>
+        <v>18738</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B67" s="6" t="n">
-        <v>154405</v>
+        <v>99547</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 22.30.1.1339</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B68" s="6" t="n">
-        <v>10923</v>
+        <v>42024</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" s="4" t="n">
@@ -1524,75 +1566,75 @@
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1216</t>
         </is>
       </c>
       <c r="B69" s="6" t="n">
-        <v>3650830</v>
+        <v>36106</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2021-12-23</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B70" s="6" t="n">
-        <v>14239</v>
+        <v>77849</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B71" s="6" t="n">
-        <v>265400</v>
+        <v>75637</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B72" s="6" t="n">
-        <v>12988</v>
+        <v>15504</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" s="4" t="n">
@@ -1600,18 +1642,18 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B73" s="6" t="n">
-        <v>42024</v>
+        <v>34244</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" s="4" t="n">
@@ -1619,56 +1661,56 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
         </is>
       </c>
       <c r="B74" s="6" t="n">
-        <v>99547</v>
+        <v>1543020</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2021-04-18</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B75" s="6" t="n">
-        <v>77849</v>
+        <v>171222</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B76" s="6" t="n">
-        <v>44160</v>
+        <v>238746</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" s="4" t="n">
@@ -1676,18 +1718,18 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B77" s="6" t="n">
-        <v>75637</v>
+        <v>67111</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" s="4" t="n">
@@ -1695,37 +1737,37 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B78" s="6" t="n">
-        <v>93224</v>
+        <v>321983</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B79" s="6" t="n">
-        <v>15504</v>
+        <v>66577</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" s="4" t="n">
@@ -1733,37 +1775,37 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B80" s="6" t="n">
-        <v>450036</v>
+        <v>15734</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B81" s="6" t="n">
-        <v>1543020</v>
+        <v>95547</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" s="4" t="n">
@@ -1771,75 +1813,75 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B82" s="6" t="n">
-        <v>169789</v>
+        <v>121232</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B83" s="6" t="n">
-        <v>238746</v>
+        <v>59673</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
         </is>
       </c>
       <c r="B84" s="6" t="n">
-        <v>26241</v>
+        <v>36791</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-07-20</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B85" s="6" t="n">
-        <v>321983</v>
+        <v>684542</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" s="4" t="n">
@@ -1847,56 +1889,56 @@
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B86" s="6" t="n">
-        <v>15730</v>
+        <v>262523</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-04-05</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B87" s="6" t="n">
-        <v>95547</v>
+        <v>209593</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B88" s="6" t="n">
-        <v>443012</v>
+        <v>67365</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" s="4" t="n">
@@ -1904,37 +1946,37 @@
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B89" s="6" t="n">
-        <v>121232</v>
+        <v>113652</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B90" s="6" t="n">
-        <v>59673</v>
+        <v>56018</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" s="4" t="n">
@@ -1942,18 +1984,18 @@
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1216</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B91" s="6" t="n">
-        <v>36106</v>
+        <v>26241</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" s="4" t="n">
@@ -1961,94 +2003,94 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
         </is>
       </c>
       <c r="B92" s="6" t="n">
-        <v>36791</v>
+        <v>308468</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B93" s="6" t="n">
-        <v>25808</v>
+        <v>88435</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B94" s="6" t="n">
-        <v>209593</v>
+        <v>139827</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
         </is>
       </c>
       <c r="B95" s="6" t="n">
-        <v>178916</v>
+        <v>194659</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
         </is>
       </c>
       <c r="B96" s="6" t="n">
-        <v>67365</v>
+        <v>34718</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" s="4" t="n">
@@ -2056,18 +2098,18 @@
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-08-14</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B97" s="6" t="n">
-        <v>97122</v>
+        <v>546751</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" s="4" t="n">
@@ -2075,18 +2117,18 @@
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-08-10</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B98" s="6" t="n">
-        <v>113652</v>
+        <v>13016</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" s="4" t="n">
@@ -2094,18 +2136,18 @@
       </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2019-07-29</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
         </is>
       </c>
       <c r="B99" s="6" t="n">
-        <v>308468</v>
+        <v>443012</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" s="4" t="n">
@@ -2113,37 +2155,37 @@
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2019-07-06</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B100" s="6" t="n">
-        <v>88435</v>
+        <v>46270</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-04-23</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
         </is>
       </c>
       <c r="B101" s="6" t="n">
-        <v>139827</v>
+        <v>108633</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" s="4" t="n">
@@ -2151,18 +2193,18 @@
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-04-06</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
         </is>
       </c>
       <c r="B102" s="6" t="n">
-        <v>194659</v>
+        <v>191877</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" s="4" t="n">
@@ -2170,37 +2212,37 @@
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-03-24</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
         </is>
       </c>
       <c r="B103" s="6" t="n">
-        <v>34718</v>
+        <v>61072</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2018-11-27</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
         </is>
       </c>
       <c r="B104" s="6" t="n">
-        <v>546751</v>
+        <v>108823</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" s="4" t="n">
@@ -2208,53 +2250,15 @@
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
-        </is>
-      </c>
-      <c r="B105" s="6" t="n">
-        <v>46270</v>
-      </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E105" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
-        </is>
-      </c>
-      <c r="B106" s="6" t="n">
-        <v>108633</v>
-      </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E106" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-06</t>
-        </is>
-      </c>
-    </row>
+          <t>2018-10-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="105"/>
+    <row r="106"/>
     <row r="107"/>
     <row r="108"/>
     <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Melaleuca_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Melaleuca_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,193 +515,193 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.240.0.6</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>55</v>
+        <v>309</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>92.90000000000001</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.240.0.6</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>315</v>
+        <v>54</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>93.2</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>94.59999999999999</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1327</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>447</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>95.09999999999999</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.1.1</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1327</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6</v>
+        <v>418</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>96.40000000000001</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>97.2</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>97.7</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.80.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>97.8</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>98</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.1.2</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.80.0.7</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>4</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>98.09999999999999</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.70.0.6</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1303</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>98.09999999999999</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1303</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -714,7 +714,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>98.3</v>
@@ -723,141 +723,139 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.1.2</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="4" t="n">
-        <v>5</v>
-      </c>
       <c r="D18" s="4" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.60.1.2</t>
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.20.1.1</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B21" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="C20" s="4" t="n">
-        <v>61</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>98.90000000000001</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="C21" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.0.3</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>115</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>56</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="22"/>
-    <row r="23"/>
+      <c r="B23" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>1661</v>
+      </c>
+    </row>
     <row r="24"/>
     <row r="25"/>
     <row r="26"/>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Good Drivers (Roaming &gt; 99.8%)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Adapter-Driver</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>Total Samples</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr"/>
+      <c r="D30" s="3" t="inlineStr">
         <is>
           <t>Good Roaming Calculation (%)</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="E30" s="3" t="inlineStr">
         <is>
           <t>Driver Vintage</t>
         </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="n">
-        <v>156943</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="n">
-        <v>10451</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E30" s="4" t="n">
-        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>61902</v>
+        <v>156943</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
@@ -870,49 +868,45 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>34181</v>
+        <v>10451</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>54631</v>
+        <v>61902</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
+      <c r="E33" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>445055</v>
+        <v>34181</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
@@ -920,56 +914,56 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>4931894</v>
+        <v>56069</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>52237</v>
+        <v>449371</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>18721</v>
+        <v>4931894</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
@@ -977,18 +971,18 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>27295</v>
+        <v>52237</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
@@ -996,18 +990,18 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-08-13</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>276085</v>
+        <v>18721</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
@@ -1015,56 +1009,56 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>625139</v>
+        <v>27295</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2024-04-13</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>13533</v>
+        <v>276086</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>44160</v>
+        <v>625298</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
@@ -1072,18 +1066,18 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>97122</v>
+        <v>14968</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
@@ -1091,18 +1085,18 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-12-19</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>78331</v>
+        <v>44160</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
@@ -1110,37 +1104,37 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>69578</v>
+        <v>97122</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>329845</v>
+        <v>78331</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
@@ -1148,18 +1142,18 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>226852</v>
+        <v>69578</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
@@ -1167,37 +1161,37 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>453273</v>
+        <v>331283</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-05-08</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>143808</v>
+        <v>226852</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" s="4" t="n">
@@ -1205,75 +1199,75 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>287148</v>
+        <v>453652</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2023-03-08</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>27599</v>
+        <v>143808</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>19083</v>
+        <v>287148</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>10661</v>
+        <v>27599</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="4" t="n">
@@ -1281,18 +1275,18 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 22.30.1.1339</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>10923</v>
+        <v>19083</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" s="4" t="n">
@@ -1300,56 +1294,56 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-08-30</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B55" s="6" t="n">
-        <v>3650830</v>
+        <v>10661</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 22.30.1.1339</t>
         </is>
       </c>
       <c r="B56" s="6" t="n">
-        <v>96526</v>
+        <v>10923</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-08-18</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1255</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B57" s="6" t="n">
-        <v>23159</v>
+        <v>3650830</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" s="4" t="n">
@@ -1357,75 +1351,75 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B58" s="6" t="n">
-        <v>154405</v>
+        <v>96526</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1255</t>
         </is>
       </c>
       <c r="B59" s="6" t="n">
-        <v>14239</v>
+        <v>23159</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-07-04</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B60" s="6" t="n">
-        <v>265400</v>
+        <v>154405</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B61" s="6" t="n">
-        <v>12988</v>
+        <v>14239</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" s="4" t="n">
@@ -1433,22 +1427,22 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B62" s="6" t="n">
-        <v>25808</v>
+        <v>265400</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
@@ -1459,11 +1453,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B63" s="6" t="n">
-        <v>94657</v>
+        <v>12988</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" s="4" t="n">
@@ -1478,49 +1472,49 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B64" s="6" t="n">
-        <v>178916</v>
+        <v>25808</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B65" s="6" t="n">
-        <v>109036</v>
+        <v>96091</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B66" s="6" t="n">
-        <v>18738</v>
+        <v>178916</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" s="4" t="n">
@@ -1528,18 +1522,18 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B67" s="6" t="n">
-        <v>99547</v>
+        <v>109036</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" s="4" t="n">
@@ -1547,75 +1541,75 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B68" s="6" t="n">
-        <v>42024</v>
+        <v>18738</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1216</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B69" s="6" t="n">
-        <v>36106</v>
+        <v>99549</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>2021-12-23</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B70" s="6" t="n">
-        <v>77849</v>
+        <v>42024</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1216</t>
         </is>
       </c>
       <c r="B71" s="6" t="n">
-        <v>75637</v>
+        <v>36106</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" s="4" t="n">
@@ -1623,37 +1617,37 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-12-23</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B72" s="6" t="n">
-        <v>15504</v>
+        <v>77999</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B73" s="6" t="n">
-        <v>34244</v>
+        <v>75637</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" s="4" t="n">
@@ -1661,18 +1655,18 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B74" s="6" t="n">
-        <v>1543020</v>
+        <v>15504</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" s="4" t="n">
@@ -1680,18 +1674,18 @@
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B75" s="6" t="n">
-        <v>171222</v>
+        <v>34244</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" s="4" t="n">
@@ -1699,37 +1693,37 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
         </is>
       </c>
       <c r="B76" s="6" t="n">
-        <v>238746</v>
+        <v>1543020</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2021-04-18</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B77" s="6" t="n">
-        <v>67111</v>
+        <v>175767</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" s="4" t="n">
@@ -1737,18 +1731,18 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B78" s="6" t="n">
-        <v>321983</v>
+        <v>240182</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" s="4" t="n">
@@ -1756,18 +1750,18 @@
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B79" s="6" t="n">
-        <v>66577</v>
+        <v>67111</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" s="4" t="n">
@@ -1775,18 +1769,18 @@
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B80" s="6" t="n">
-        <v>15734</v>
+        <v>321983</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" s="4" t="n">
@@ -1794,18 +1788,18 @@
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B81" s="6" t="n">
-        <v>95547</v>
+        <v>66577</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" s="4" t="n">
@@ -1813,18 +1807,18 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B82" s="6" t="n">
-        <v>121232</v>
+        <v>15734</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" s="4" t="n">
@@ -1832,18 +1826,18 @@
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B83" s="6" t="n">
-        <v>59673</v>
+        <v>95547</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" s="4" t="n">
@@ -1851,18 +1845,18 @@
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B84" s="6" t="n">
-        <v>36791</v>
+        <v>121232</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" s="4" t="n">
@@ -1870,56 +1864,56 @@
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B85" s="6" t="n">
-        <v>684542</v>
+        <v>59673</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
         </is>
       </c>
       <c r="B86" s="6" t="n">
-        <v>262523</v>
+        <v>36791</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-07-20</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B87" s="6" t="n">
-        <v>209593</v>
+        <v>684728</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" s="4" t="n">
@@ -1927,18 +1921,18 @@
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B88" s="6" t="n">
-        <v>67365</v>
+        <v>262523</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" s="4" t="n">
@@ -1946,37 +1940,37 @@
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2020-04-05</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B89" s="6" t="n">
-        <v>113652</v>
+        <v>210188</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B90" s="6" t="n">
-        <v>56018</v>
+        <v>67365</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" s="4" t="n">
@@ -1984,18 +1978,18 @@
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B91" s="6" t="n">
-        <v>26241</v>
+        <v>113652</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" s="4" t="n">
@@ -2003,18 +1997,18 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B92" s="6" t="n">
-        <v>308468</v>
+        <v>56018</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" s="4" t="n">
@@ -2022,37 +2016,37 @@
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B93" s="6" t="n">
-        <v>88435</v>
+        <v>26241</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
         </is>
       </c>
       <c r="B94" s="6" t="n">
-        <v>139827</v>
+        <v>308481</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" s="4" t="n">
@@ -2060,22 +2054,22 @@
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B95" s="6" t="n">
-        <v>194659</v>
+        <v>88435</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
@@ -2086,11 +2080,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B96" s="6" t="n">
-        <v>34718</v>
+        <v>139827</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" s="4" t="n">
@@ -2098,18 +2092,18 @@
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
         </is>
       </c>
       <c r="B97" s="6" t="n">
-        <v>546751</v>
+        <v>194659</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" s="4" t="n">
@@ -2117,18 +2111,18 @@
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
         </is>
       </c>
       <c r="B98" s="6" t="n">
-        <v>13016</v>
+        <v>34718</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" s="4" t="n">
@@ -2136,18 +2130,18 @@
       </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2019-08-14</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B99" s="6" t="n">
-        <v>443012</v>
+        <v>546751</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" s="4" t="n">
@@ -2155,18 +2149,18 @@
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>2019-07-06</t>
+          <t>2019-08-10</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B100" s="6" t="n">
-        <v>46270</v>
+        <v>13016</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" s="4" t="n">
@@ -2174,18 +2168,18 @@
       </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2019-07-29</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
         </is>
       </c>
       <c r="B101" s="6" t="n">
-        <v>108633</v>
+        <v>443223</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" s="4" t="n">
@@ -2193,18 +2187,18 @@
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>2019-04-06</t>
+          <t>2019-07-06</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B102" s="6" t="n">
-        <v>191877</v>
+        <v>46270</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" s="4" t="n">
@@ -2212,37 +2206,37 @@
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>2019-03-24</t>
+          <t>2019-04-23</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
         </is>
       </c>
       <c r="B103" s="6" t="n">
-        <v>61072</v>
+        <v>109665</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>2018-11-27</t>
+          <t>2019-04-06</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
         </is>
       </c>
       <c r="B104" s="6" t="n">
-        <v>108823</v>
+        <v>191877</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" s="4" t="n">
@@ -2250,15 +2244,53 @@
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
+          <t>2019-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+        </is>
+      </c>
+      <c r="B105" s="6" t="n">
+        <v>62515</v>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E105" s="4" t="inlineStr">
+        <is>
+          <t>2018-11-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+        </is>
+      </c>
+      <c r="B106" s="6" t="n">
+        <v>108823</v>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E106" s="4" t="inlineStr">
+        <is>
           <t>2018-10-31</t>
         </is>
       </c>
     </row>
-    <row r="105"/>
-    <row r="106"/>
     <row r="107"/>
     <row r="108"/>
     <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Melaleuca_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Melaleuca_driver_summary.xlsx
@@ -538,10 +538,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>90.8</v>
+        <v>90.59999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -557,39 +557,39 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>94</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1327</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>4</v>
+        <v>418</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>94.59999999999999</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1327</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>418</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>95.2</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>5</v>
@@ -611,110 +611,110 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>96.40000000000001</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>97.40000000000001</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.80.0.7</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.80.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>97.8</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1303</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>98</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.170.0.3</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1303</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4" t="n">
         <v>98.3</v>
@@ -749,7 +749,7 @@
         <v>140</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="20">
@@ -771,14 +771,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.0.3</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="D21" s="4" t="n">
         <v>98.8</v>
@@ -787,17 +787,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -807,10 +807,10 @@
         </is>
       </c>
       <c r="B23" s="5" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1661</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="24"/>

--- a/Output/roaming_impact_reports_per_acct/Melaleuca_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Melaleuca_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="60" customWidth="1" min="1" max="1"/>
+    <col width="101" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
@@ -483,386 +483,385 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>66.7</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 3.3.3.854</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 23.60.1.2</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>233</v>
-      </c>
       <c r="D4" s="4" t="n">
-        <v>86.3</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.240.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>309</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>90.59999999999999</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.120.0.3</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1327</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>94.3</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1327</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>418</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>95.09999999999999</v>
+        <v>96.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>96.40000000000001</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>96.40000000000001</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>30</v>
+        <v>228</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>97.7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.80.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.60.1.2</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>97.8</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.1.2</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
+          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1229</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>98.3</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>197</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1303</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1255</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>35</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>98.5</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.60.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.160.0.3</t>
+          <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 3.3.3.854</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.60.1.2</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D22" s="4" t="n">
         <v>98.90000000000001</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.100.1.1</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>64</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="24"/>
+      <c r="B24" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1242</v>
+      </c>
+    </row>
     <row r="25"/>
     <row r="26"/>
     <row r="27"/>
     <row r="28"/>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29"/>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Good Drivers (Roaming &gt; 99.8%)</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>Adapter-Driver</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>Total Samples</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr"/>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr"/>
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>Good Roaming Calculation (%)</t>
         </is>
       </c>
-      <c r="E30" s="3" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>Driver Vintage</t>
         </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.0.1.5</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="n">
-        <v>156943</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E31" s="4" t="n">
-        <v/>
       </c>
     </row>
     <row r="32">
@@ -889,7 +888,7 @@
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>61902</v>
+        <v>63373</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
@@ -902,30 +901,28 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>34181</v>
+        <v>11128</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E34" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>56069</v>
+        <v>17976</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
@@ -933,37 +930,37 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>449371</v>
+        <v>69345</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-01-01</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
+          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1277</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>4931894</v>
+        <v>41308</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
@@ -971,37 +968,37 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2024-11-18</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>52237</v>
+        <v>486214</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>18721</v>
+        <v>108115</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
@@ -1009,75 +1006,75 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>27295</v>
+        <v>4931894</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 23.80.0.7</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>276086</v>
+        <v>136645</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-09-01</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1229</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>625298</v>
+        <v>305586</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2024-08-26</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>14968</v>
+        <v>52237</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
@@ -1085,18 +1082,18 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2024-08-13</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>44160</v>
+        <v>18721</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
@@ -1104,37 +1101,37 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 23.60.1.2</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>97122</v>
+        <v>45212</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2024-06-02</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>78331</v>
+        <v>788550</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
@@ -1142,37 +1139,37 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2024-04-13</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>69578</v>
+        <v>27295</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2024-04-13</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>331283</v>
+        <v>276524</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" s="4" t="n">
@@ -1180,18 +1177,18 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>226852</v>
+        <v>637128</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" s="4" t="n">
@@ -1199,18 +1196,18 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>453652</v>
+        <v>32457</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
@@ -1218,18 +1215,18 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-12-19</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>143808</v>
+        <v>44160</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" s="4" t="n">
@@ -1237,75 +1234,75 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>287148</v>
+        <v>97122</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>27599</v>
+        <v>69578</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.170.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>19083</v>
+        <v>78477</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.240.0.6</t>
         </is>
       </c>
       <c r="B55" s="6" t="n">
-        <v>10661</v>
+        <v>100154</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" s="4" t="n">
@@ -1313,37 +1310,37 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2023-06-17</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 22.30.1.1339</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B56" s="6" t="n">
-        <v>10923</v>
+        <v>338880</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2023-05-08</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B57" s="6" t="n">
-        <v>3650830</v>
+        <v>226852</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" s="4" t="n">
@@ -1351,37 +1348,37 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B58" s="6" t="n">
-        <v>96526</v>
+        <v>459268</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2023-03-08</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1255</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B59" s="6" t="n">
-        <v>23159</v>
+        <v>143869</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" s="4" t="n">
@@ -1389,37 +1386,37 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B60" s="6" t="n">
-        <v>154405</v>
+        <v>287148</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B61" s="6" t="n">
-        <v>14239</v>
+        <v>31330</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" s="4" t="n">
@@ -1427,37 +1424,37 @@
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.180.0.4</t>
         </is>
       </c>
       <c r="B62" s="6" t="n">
-        <v>265400</v>
+        <v>98032</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-10-17</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B63" s="6" t="n">
-        <v>12988</v>
+        <v>11140</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" s="4" t="n">
@@ -1465,18 +1462,18 @@
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+          <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 22.30.1.1339</t>
         </is>
       </c>
       <c r="B64" s="6" t="n">
-        <v>25808</v>
+        <v>10923</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" s="4" t="n">
@@ -1484,37 +1481,37 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-08-18</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B65" s="6" t="n">
-        <v>96091</v>
+        <v>96526</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B66" s="6" t="n">
-        <v>178916</v>
+        <v>3654692</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" s="4" t="n">
@@ -1522,94 +1519,94 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B67" s="6" t="n">
-        <v>109036</v>
+        <v>56294</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B68" s="6" t="n">
-        <v>18738</v>
+        <v>158283</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B69" s="6" t="n">
-        <v>99549</v>
+        <v>14487</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B70" s="6" t="n">
-        <v>42024</v>
+        <v>265400</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1216</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B71" s="6" t="n">
-        <v>36106</v>
+        <v>25808</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" s="4" t="n">
@@ -1617,75 +1614,75 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>2021-12-23</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B72" s="6" t="n">
-        <v>77999</v>
+        <v>106139</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B73" s="6" t="n">
-        <v>75637</v>
+        <v>178916</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX210 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B74" s="6" t="n">
-        <v>15504</v>
+        <v>109293</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B75" s="6" t="n">
-        <v>34244</v>
+        <v>34662</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" s="4" t="n">
@@ -1693,37 +1690,37 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B76" s="6" t="n">
-        <v>1543020</v>
+        <v>101951</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B77" s="6" t="n">
-        <v>175767</v>
+        <v>116879</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" s="4" t="n">
@@ -1731,75 +1728,75 @@
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1216</t>
         </is>
       </c>
       <c r="B78" s="6" t="n">
-        <v>240182</v>
+        <v>36106</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2021-12-23</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B79" s="6" t="n">
-        <v>67111</v>
+        <v>79953</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B80" s="6" t="n">
-        <v>321983</v>
+        <v>75637</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B81" s="6" t="n">
-        <v>66577</v>
+        <v>35355</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" s="4" t="n">
@@ -1807,94 +1804,94 @@
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
         </is>
       </c>
       <c r="B82" s="6" t="n">
-        <v>15734</v>
+        <v>1543020</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2021-04-18</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B83" s="6" t="n">
-        <v>95547</v>
+        <v>191994</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B84" s="6" t="n">
-        <v>121232</v>
+        <v>103056</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B85" s="6" t="n">
-        <v>59673</v>
+        <v>244856</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B86" s="6" t="n">
-        <v>36791</v>
+        <v>172690</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" s="4" t="n">
@@ -1902,94 +1899,94 @@
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B87" s="6" t="n">
-        <v>684728</v>
+        <v>67111</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B88" s="6" t="n">
-        <v>262523</v>
+        <v>325504</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B89" s="6" t="n">
-        <v>210188</v>
+        <v>68450</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B90" s="6" t="n">
-        <v>67365</v>
+        <v>15734</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
         </is>
       </c>
       <c r="B91" s="6" t="n">
-        <v>113652</v>
+        <v>52096</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" s="4" t="n">
@@ -1997,18 +1994,18 @@
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B92" s="6" t="n">
-        <v>56018</v>
+        <v>96727</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" s="4" t="n">
@@ -2016,37 +2013,37 @@
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B93" s="6" t="n">
-        <v>26241</v>
+        <v>122671</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B94" s="6" t="n">
-        <v>308481</v>
+        <v>65425</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" s="4" t="n">
@@ -2054,18 +2051,18 @@
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
         </is>
       </c>
       <c r="B95" s="6" t="n">
-        <v>88435</v>
+        <v>36791</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" s="4" t="n">
@@ -2073,37 +2070,37 @@
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2020-07-20</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B96" s="6" t="n">
-        <v>139827</v>
+        <v>689912</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B97" s="6" t="n">
-        <v>194659</v>
+        <v>262523</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" s="4" t="n">
@@ -2111,37 +2108,37 @@
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2020-04-05</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B98" s="6" t="n">
-        <v>34718</v>
+        <v>211798</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B99" s="6" t="n">
-        <v>546751</v>
+        <v>69430</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" s="4" t="n">
@@ -2149,18 +2146,18 @@
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B100" s="6" t="n">
-        <v>13016</v>
+        <v>117653</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" s="4" t="n">
@@ -2168,18 +2165,18 @@
       </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B101" s="6" t="n">
-        <v>443223</v>
+        <v>26241</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" s="4" t="n">
@@ -2187,18 +2184,18 @@
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>2019-07-06</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B102" s="6" t="n">
-        <v>46270</v>
+        <v>56018</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" s="4" t="n">
@@ -2206,18 +2203,18 @@
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 21.60.0.5</t>
         </is>
       </c>
       <c r="B103" s="6" t="n">
-        <v>109665</v>
+        <v>54452</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" s="4" t="n">
@@ -2225,18 +2222,18 @@
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>2019-04-06</t>
+          <t>2019-11-10</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
         </is>
       </c>
       <c r="B104" s="6" t="n">
-        <v>191877</v>
+        <v>310711</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" s="4" t="n">
@@ -2244,53 +2241,414 @@
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>2019-03-24</t>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
         </is>
       </c>
       <c r="B105" s="6" t="n">
-        <v>62515</v>
+        <v>161874</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>2018-11-27</t>
+          <t>2019-09-05</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B106" s="6" t="n">
-        <v>108823</v>
+        <v>90508</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E106" s="4" t="inlineStr">
         <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+        </is>
+      </c>
+      <c r="B107" s="6" t="n">
+        <v>196098</v>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E107" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+        </is>
+      </c>
+      <c r="B108" s="6" t="n">
+        <v>140512</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E108" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+        </is>
+      </c>
+      <c r="B109" s="6" t="n">
+        <v>154175</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E109" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+        </is>
+      </c>
+      <c r="B110" s="6" t="n">
+        <v>34718</v>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E110" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+        </is>
+      </c>
+      <c r="B111" s="6" t="n">
+        <v>546751</v>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E111" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+        </is>
+      </c>
+      <c r="B112" s="6" t="n">
+        <v>13016</v>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E112" s="4" t="inlineStr">
+        <is>
+          <t>2019-07-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+        </is>
+      </c>
+      <c r="B113" s="6" t="n">
+        <v>451638</v>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E113" s="4" t="inlineStr">
+        <is>
+          <t>2019-07-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+        </is>
+      </c>
+      <c r="B114" s="6" t="n">
+        <v>20227</v>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E114" s="4" t="inlineStr">
+        <is>
+          <t>2019-05-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+        </is>
+      </c>
+      <c r="B115" s="6" t="n">
+        <v>34065</v>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E115" s="4" t="inlineStr">
+        <is>
+          <t>2019-04-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+        </is>
+      </c>
+      <c r="B116" s="6" t="n">
+        <v>52515</v>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E116" s="4" t="inlineStr">
+        <is>
+          <t>2019-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+        </is>
+      </c>
+      <c r="B117" s="6" t="n">
+        <v>116738</v>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E117" s="4" t="inlineStr">
+        <is>
+          <t>2019-04-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+        </is>
+      </c>
+      <c r="B118" s="6" t="n">
+        <v>191877</v>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E118" s="4" t="inlineStr">
+        <is>
+          <t>2019-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+        </is>
+      </c>
+      <c r="B119" s="6" t="n">
+        <v>48540</v>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E119" s="4" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 20.120.0.100</t>
+        </is>
+      </c>
+      <c r="B120" s="6" t="n">
+        <v>55058</v>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E120" s="4" t="inlineStr">
+        <is>
+          <t>2019-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+        </is>
+      </c>
+      <c r="B121" s="6" t="n">
+        <v>73817</v>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E121" s="4" t="inlineStr">
+        <is>
+          <t>2018-11-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+        </is>
+      </c>
+      <c r="B122" s="6" t="n">
+        <v>184564</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E122" s="4" t="inlineStr">
+        <is>
+          <t>2018-11-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+        </is>
+      </c>
+      <c r="B123" s="6" t="n">
+        <v>108823</v>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E123" s="4" t="inlineStr">
+        <is>
           <t>2018-10-31</t>
         </is>
       </c>
     </row>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+        </is>
+      </c>
+      <c r="B124" s="6" t="n">
+        <v>14221</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E124" s="4" t="inlineStr">
+        <is>
+          <t>2018-05-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
+        </is>
+      </c>
+      <c r="B125" s="6" t="n">
+        <v>23765</v>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E125" s="4" t="inlineStr">
+        <is>
+          <t>2018-01-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/Melaleuca_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/Melaleuca_driver_summary.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J187"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,388 +480,460 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>94.40000000000001</v>
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>95</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 23.60.1.2</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1303</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>95.8</v>
+        <v>95.90000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>96</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>96.2</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="n">
-        <v>9</v>
-      </c>
       <c r="D8" s="4" t="n">
-        <v>96.7</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1229</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>96.8</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.1.2</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>230</v>
+        <v>3</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>98</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1255</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
         <v>4</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1327</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>98.09999999999999</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.60.1.2</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1229</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.240.0.6</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.60.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>98.3</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.60.1.2</t>
+          <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 3.3.3.854</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.120.0.3</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.3.0.426</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>98.90000000000001</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.170.0.3</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>260</v>
-      </c>
-      <c r="D20" s="4" t="n">
-        <v>98.90000000000001</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>74</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>1206</v>
-      </c>
-    </row>
+      <c r="B18" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
     <row r="22"/>
     <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1869842</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3420</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4386</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2436</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1877648</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
+      </c>
+    </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>8170878</v>
+      </c>
+      <c r="C27" t="n">
+        <v>15867</v>
+      </c>
+      <c r="D27" t="n">
+        <v>13188</v>
+      </c>
+      <c r="E27" t="n">
+        <v>18436</v>
+      </c>
+      <c r="F27" t="n">
+        <v>8199933</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>22.40.0.7</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2021-09-18</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>adapter-driver</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>good sum</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>critical sum</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>warning sum</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>client count</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>total sum</t>
-        </is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1611822</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4793</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1136</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2996</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1617751</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>adapter</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>driver</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>good roaming calculation (%)</t>
-        </is>
+          <t>22.190.0.4</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>99.59999999999999</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>driver vintage</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376240</v>
+        <v>298304</v>
       </c>
       <c r="C29" t="n">
-        <v>1104</v>
+        <v>925</v>
       </c>
       <c r="D29" t="n">
-        <v>582</v>
+        <v>303</v>
       </c>
       <c r="E29" t="n">
-        <v>594</v>
+        <v>420</v>
       </c>
       <c r="F29" t="n">
-        <v>377926</v>
+        <v>299532</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -870,7 +942,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>22.150.1.1</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -878,30 +950,30 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1786148</v>
+        <v>381616</v>
       </c>
       <c r="C30" t="n">
-        <v>3309</v>
+        <v>1106</v>
       </c>
       <c r="D30" t="n">
-        <v>4386</v>
+        <v>582</v>
       </c>
       <c r="E30" t="n">
-        <v>2366</v>
+        <v>601</v>
       </c>
       <c r="F30" t="n">
-        <v>1793843</v>
+        <v>383304</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -910,7 +982,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>22.250.0.4</t>
+          <t>23.10.0.8</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -918,39 +990,39 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7568454</v>
+        <v>591074</v>
       </c>
       <c r="C31" t="n">
-        <v>14989</v>
+        <v>1100</v>
       </c>
       <c r="D31" t="n">
-        <v>13188</v>
+        <v>1527</v>
       </c>
       <c r="E31" t="n">
-        <v>16900</v>
+        <v>1267</v>
       </c>
       <c r="F31" t="n">
-        <v>7596631</v>
+        <v>593701</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>22.40.0.7</t>
+          <t>23.30.0.6</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -958,39 +1030,39 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.180.0.4</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290468</v>
+        <v>17609</v>
       </c>
       <c r="C32" t="n">
-        <v>898</v>
+        <v>69</v>
       </c>
       <c r="D32" t="n">
-        <v>303</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>412</v>
+        <v>57</v>
       </c>
       <c r="F32" t="n">
-        <v>291669</v>
+        <v>17678</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>22.150.1.1</t>
+          <t>22.180.0.4</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -998,7 +1070,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-10-17</t>
         </is>
       </c>
     </row>
@@ -1009,19 +1081,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>54037</v>
+        <v>84751</v>
       </c>
       <c r="C33" t="n">
-        <v>208</v>
+        <v>312</v>
       </c>
       <c r="D33" t="n">
         <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F33" t="n">
-        <v>54249</v>
+        <v>85067</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1045,23 +1117,23 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.60.1.2</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580825</v>
+        <v>4430490</v>
       </c>
       <c r="C34" t="n">
-        <v>1091</v>
+        <v>12730</v>
       </c>
       <c r="D34" t="n">
-        <v>1527</v>
+        <v>5504</v>
       </c>
       <c r="E34" t="n">
-        <v>1250</v>
+        <v>5946</v>
       </c>
       <c r="F34" t="n">
-        <v>583443</v>
+        <v>4448724</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1070,7 +1142,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>23.30.0.6</t>
+          <t>23.60.1.2</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -1078,39 +1150,39 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2024-06-02</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.60.1.2</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.250.0.4</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4228854</v>
+        <v>1293197</v>
       </c>
       <c r="C35" t="n">
-        <v>12120</v>
+        <v>4322</v>
       </c>
       <c r="D35" t="n">
-        <v>5504</v>
+        <v>1009</v>
       </c>
       <c r="E35" t="n">
-        <v>5791</v>
+        <v>1990</v>
       </c>
       <c r="F35" t="n">
-        <v>4246478</v>
+        <v>1298528</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>23.60.1.2</t>
+          <t>22.250.0.4</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -1118,39 +1190,39 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.180.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17609</v>
+        <v>415263</v>
       </c>
       <c r="C36" t="n">
-        <v>69</v>
+        <v>488</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1136</v>
       </c>
       <c r="E36" t="n">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="F36" t="n">
-        <v>17678</v>
+        <v>416887</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>22.180.0.4</t>
+          <t>22.150.1.1</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -1158,39 +1230,39 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>415263</v>
+        <v>31517</v>
       </c>
       <c r="C37" t="n">
-        <v>488</v>
+        <v>112</v>
       </c>
       <c r="D37" t="n">
-        <v>1136</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>485</v>
+        <v>66</v>
       </c>
       <c r="F37" t="n">
-        <v>416887</v>
+        <v>31629</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>22.150.1.1</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -1198,39 +1270,39 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.250.0.4</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1327</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1254472</v>
+        <v>42241</v>
       </c>
       <c r="C38" t="n">
-        <v>4270</v>
+        <v>120</v>
       </c>
       <c r="D38" t="n">
-        <v>1009</v>
+        <v>33</v>
       </c>
       <c r="E38" t="n">
-        <v>1946</v>
+        <v>225</v>
       </c>
       <c r="F38" t="n">
-        <v>1259751</v>
+        <v>42394</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>mediatek mt7921 wi-fi 6 802.11ax pcie adapter</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>22.250.0.4</t>
+          <t>3.0.1.1327</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -1238,39 +1310,39 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2024-06-30</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.25.2</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>448248</v>
+        <v>1771970</v>
       </c>
       <c r="C39" t="n">
-        <v>738</v>
+        <v>7123</v>
       </c>
       <c r="D39" t="n">
-        <v>931</v>
+        <v>634</v>
       </c>
       <c r="E39" t="n">
-        <v>688</v>
+        <v>2452</v>
       </c>
       <c r="F39" t="n">
-        <v>449917</v>
+        <v>1779727</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>20.70.25.2</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -1278,39 +1350,39 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2021-06-21</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>778486</v>
+        <v>467311</v>
       </c>
       <c r="C40" t="n">
-        <v>2131</v>
+        <v>772</v>
       </c>
       <c r="D40" t="n">
-        <v>1043</v>
+        <v>931</v>
       </c>
       <c r="E40" t="n">
-        <v>972</v>
+        <v>706</v>
       </c>
       <c r="F40" t="n">
-        <v>781660</v>
+        <v>469014</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>22.130.0.5</t>
+          <t>23.10.0.8</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -1318,39 +1390,39 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>11282</v>
+        <v>455081</v>
       </c>
       <c r="C41" t="n">
-        <v>42</v>
+        <v>1861</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E41" t="n">
-        <v>28</v>
+        <v>639</v>
       </c>
       <c r="F41" t="n">
-        <v>11325</v>
+        <v>456994</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9260 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>23.110.0.5</t>
+          <t>23.120.0.3</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -1358,30 +1430,30 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>135485</v>
+        <v>15942</v>
       </c>
       <c r="C42" t="n">
-        <v>325</v>
+        <v>57</v>
       </c>
       <c r="D42" t="n">
-        <v>203</v>
+        <v>3</v>
       </c>
       <c r="E42" t="n">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="F42" t="n">
-        <v>136013</v>
+        <v>16002</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1390,7 +1462,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>22.110.1.1</t>
+          <t>22.80.1.1</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -1398,39 +1470,39 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>204134</v>
+        <v>145537</v>
       </c>
       <c r="C43" t="n">
-        <v>775</v>
+        <v>325</v>
       </c>
       <c r="D43" t="n">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="E43" t="n">
-        <v>319</v>
+        <v>213</v>
       </c>
       <c r="F43" t="n">
-        <v>204961</v>
+        <v>146065</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>23.120.0.3</t>
+          <t>22.110.1.1</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -1438,39 +1510,39 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.20.1.1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>28296</v>
+        <v>92845</v>
       </c>
       <c r="C44" t="n">
-        <v>111</v>
+        <v>419</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="F44" t="n">
-        <v>28407</v>
+        <v>93264</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>21.20.1.1</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -1478,39 +1550,39 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2019-05-29</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>30421</v>
+        <v>12102</v>
       </c>
       <c r="C45" t="n">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F45" t="n">
-        <v>30555</v>
+        <v>12145</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wireless-ac 9260 160mhz</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>21.50.1.1</t>
+          <t>23.110.0.5</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -1518,39 +1590,39 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2025-01-01</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.130.0.5</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51569</v>
+        <v>789985</v>
       </c>
       <c r="C46" t="n">
-        <v>205</v>
+        <v>2131</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="E46" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="F46" t="n">
-        <v>51774</v>
+        <v>793159</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>23.120.0.3</t>
+          <t>22.130.0.5</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -1558,47 +1630,47 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>92845</v>
+        <v>1787924</v>
       </c>
       <c r="C47" t="n">
-        <v>419</v>
+        <v>3326</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>2614</v>
       </c>
       <c r="E47" t="n">
-        <v>114</v>
+        <v>3038</v>
       </c>
       <c r="F47" t="n">
-        <v>93264</v>
+        <v>1793864</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>21.20.1.1</t>
+          <t>22.230.0.8</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2019-05-29</t>
+          <t>2023-05-08</t>
         </is>
       </c>
     </row>
@@ -1643,23 +1715,23 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1734330</v>
+        <v>218767</v>
       </c>
       <c r="C49" t="n">
-        <v>2979</v>
+        <v>334</v>
       </c>
       <c r="D49" t="n">
-        <v>2614</v>
+        <v>313</v>
       </c>
       <c r="E49" t="n">
-        <v>2960</v>
+        <v>573</v>
       </c>
       <c r="F49" t="n">
-        <v>1739923</v>
+        <v>219414</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1668,7 +1740,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>22.230.0.8</t>
+          <t>23.70.2.3</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -1676,39 +1748,39 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.110.1.1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>77093</v>
+        <v>135467</v>
       </c>
       <c r="C50" t="n">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D50" t="n">
-        <v>24</v>
+        <v>263</v>
       </c>
       <c r="E50" t="n">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="F50" t="n">
-        <v>77287</v>
+        <v>135919</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>22.110.1.1</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -1716,79 +1788,77 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2022-01-01</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.5</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>15355</v>
+        <v>37344</v>
       </c>
       <c r="C51" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="E51" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F51" t="n">
-        <v>15408</v>
+        <v>37461</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>22.80.1.1</t>
+          <t>20.50.0.5</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>99.7</v>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
+      <c r="J51" t="n">
+        <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.30.1</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>733616</v>
+        <v>3413584</v>
       </c>
       <c r="C52" t="n">
-        <v>1647</v>
+        <v>6992</v>
       </c>
       <c r="D52" t="n">
-        <v>507</v>
+        <v>2989</v>
       </c>
       <c r="E52" t="n">
-        <v>1266</v>
+        <v>5368</v>
       </c>
       <c r="F52" t="n">
-        <v>735770</v>
+        <v>3423565</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>20.70.30.1</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -1796,39 +1866,39 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2022-01-12</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.110.1.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 21.120.0.9</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>134169</v>
+        <v>130754</v>
       </c>
       <c r="C53" t="n">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="D53" t="n">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="E53" t="n">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="F53" t="n">
-        <v>134621</v>
+        <v>131121</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>22.110.1.1</t>
+          <t>21.120.0.9</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -1836,30 +1906,30 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.30.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.4.2</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3296941</v>
+        <v>4467082</v>
       </c>
       <c r="C54" t="n">
-        <v>6476</v>
+        <v>10922</v>
       </c>
       <c r="D54" t="n">
-        <v>2989</v>
+        <v>2464</v>
       </c>
       <c r="E54" t="n">
-        <v>5171</v>
+        <v>4779</v>
       </c>
       <c r="F54" t="n">
-        <v>3306406</v>
+        <v>4480468</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -1868,7 +1938,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>20.70.30.1</t>
+          <t>20.70.4.2</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -1876,77 +1946,79 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2022-01-12</t>
+          <t>2018-10-21</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>35999</v>
+        <v>335610</v>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>495</v>
       </c>
       <c r="D55" t="n">
-        <v>112</v>
+        <v>530</v>
       </c>
       <c r="E55" t="n">
-        <v>67</v>
+        <v>414</v>
       </c>
       <c r="F55" t="n">
-        <v>36116</v>
+        <v>336635</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>20.50.0.5</t>
+          <t>22.90.0.5</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>99.7</v>
       </c>
-      <c r="J55" t="n">
-        <v/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2021-09-26</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>150548</v>
+        <v>750778</v>
       </c>
       <c r="C56" t="n">
-        <v>393</v>
+        <v>1655</v>
       </c>
       <c r="D56" t="n">
-        <v>44</v>
+        <v>507</v>
       </c>
       <c r="E56" t="n">
-        <v>225</v>
+        <v>1290</v>
       </c>
       <c r="F56" t="n">
-        <v>150985</v>
+        <v>752940</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9260 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>21.50.1.1</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -1954,39 +2026,39 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.4.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4216368</v>
+        <v>1021828</v>
       </c>
       <c r="C57" t="n">
-        <v>10356</v>
+        <v>2379</v>
       </c>
       <c r="D57" t="n">
-        <v>2464</v>
+        <v>1006</v>
       </c>
       <c r="E57" t="n">
-        <v>4601</v>
+        <v>1021</v>
       </c>
       <c r="F57" t="n">
-        <v>4229188</v>
+        <v>1025213</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>20.70.4.2</t>
+          <t>22.20.0.6</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -1994,39 +2066,39 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2018-10-21</t>
+          <t>2020-11-29</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>210370</v>
+        <v>100380</v>
       </c>
       <c r="C58" t="n">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="D58" t="n">
-        <v>313</v>
+        <v>30</v>
       </c>
       <c r="E58" t="n">
-        <v>558</v>
+        <v>267</v>
       </c>
       <c r="F58" t="n">
-        <v>211007</v>
+        <v>100674</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>23.70.2.3</t>
+          <t>22.60.0.6</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -2034,39 +2106,39 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2021-05-26</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 21.120.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>127884</v>
+        <v>65993</v>
       </c>
       <c r="C59" t="n">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="D59" t="n">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="F59" t="n">
-        <v>128250</v>
+        <v>66203</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>21.120.0.9</t>
+          <t>23.120.0.3</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -2074,79 +2146,77 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1159949</v>
+        <v>1336938</v>
       </c>
       <c r="C60" t="n">
-        <v>2346</v>
+        <v>2486</v>
       </c>
       <c r="D60" t="n">
-        <v>583</v>
+        <v>1863</v>
       </c>
       <c r="E60" t="n">
-        <v>1850</v>
+        <v>1464</v>
       </c>
       <c r="F60" t="n">
-        <v>1162878</v>
+        <v>1341287</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>22.170.0.3</t>
+          <t>21.10.2.2</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>99.7</v>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>2022-08-28</t>
-        </is>
+      <c r="J60" t="n">
+        <v/>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.3.2</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>192287</v>
+        <v>80246</v>
       </c>
       <c r="C61" t="n">
-        <v>421</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="E61" t="n">
-        <v>390</v>
+        <v>128</v>
       </c>
       <c r="F61" t="n">
-        <v>192778</v>
+        <v>80471</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>21.90.3.2</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -2154,77 +2224,79 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2020-05-03</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 21.50.1.1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1335506</v>
+        <v>150548</v>
       </c>
       <c r="C62" t="n">
-        <v>2486</v>
+        <v>393</v>
       </c>
       <c r="D62" t="n">
-        <v>1863</v>
+        <v>44</v>
       </c>
       <c r="E62" t="n">
-        <v>1463</v>
+        <v>225</v>
       </c>
       <c r="F62" t="n">
-        <v>1339855</v>
+        <v>150985</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wireless-ac 9260 160mhz</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>21.10.2.2</t>
+          <t>21.50.1.1</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>99.7</v>
       </c>
-      <c r="J62" t="n">
-        <v/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2019-10-05</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>79802</v>
+        <v>77093</v>
       </c>
       <c r="C63" t="n">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="D63" t="n">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="E63" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F63" t="n">
-        <v>80027</v>
+        <v>77287</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>21.90.3.2</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -2232,30 +2304,30 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2020-05-03</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1499724</v>
+        <v>195464</v>
       </c>
       <c r="C64" t="n">
-        <v>4069</v>
+        <v>430</v>
       </c>
       <c r="D64" t="n">
-        <v>1136</v>
+        <v>70</v>
       </c>
       <c r="E64" t="n">
-        <v>2789</v>
+        <v>401</v>
       </c>
       <c r="F64" t="n">
-        <v>1504929</v>
+        <v>195964</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2264,7 +2336,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>22.190.0.4</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -2272,39 +2344,39 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1327</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.240.0.6</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>41281</v>
+        <v>485726</v>
       </c>
       <c r="C65" t="n">
-        <v>107</v>
+        <v>600</v>
       </c>
       <c r="D65" t="n">
-        <v>33</v>
+        <v>974</v>
       </c>
       <c r="E65" t="n">
-        <v>217</v>
+        <v>636</v>
       </c>
       <c r="F65" t="n">
-        <v>41421</v>
+        <v>487300</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>mediatek mt7921 wi-fi 6 802.11ax pcie adapter</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>3.0.1.1327</t>
+          <t>22.240.0.6</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -2312,150 +2384,150 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2023-06-17</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>330685</v>
+        <v>1064181</v>
       </c>
       <c r="C66" t="n">
-        <v>445</v>
+        <v>1960</v>
       </c>
       <c r="D66" t="n">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="E66" t="n">
-        <v>410</v>
+        <v>1195</v>
       </c>
       <c r="F66" t="n">
-        <v>331660</v>
+        <v>1066698</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9260 160mhz</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>22.90.0.5</t>
+          <t>22.170.0.3</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2022-08-28</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>938125</v>
+        <v>344435</v>
       </c>
       <c r="C67" t="n">
-        <v>2222</v>
+        <v>432</v>
       </c>
       <c r="D67" t="n">
-        <v>1006</v>
+        <v>147</v>
       </c>
       <c r="E67" t="n">
-        <v>959</v>
+        <v>368</v>
       </c>
       <c r="F67" t="n">
-        <v>941353</v>
+        <v>345014</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9260 160mhz</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>22.20.0.6</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.240.0.6</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>475627</v>
+        <v>315140</v>
       </c>
       <c r="C68" t="n">
-        <v>594</v>
+        <v>446</v>
       </c>
       <c r="D68" t="n">
-        <v>974</v>
+        <v>169</v>
       </c>
       <c r="E68" t="n">
-        <v>627</v>
+        <v>358</v>
       </c>
       <c r="F68" t="n">
-        <v>477195</v>
+        <v>315755</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wireless-ac 9260 160mhz</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>22.240.0.6</t>
+          <t>22.30.0.11</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2023-06-17</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 22.90.0.5</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.250.1.2</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2123125</v>
+        <v>731692</v>
       </c>
       <c r="C69" t="n">
-        <v>2212</v>
+        <v>1002</v>
       </c>
       <c r="D69" t="n">
-        <v>1297</v>
+        <v>423</v>
       </c>
       <c r="E69" t="n">
-        <v>2410</v>
+        <v>864</v>
       </c>
       <c r="F69" t="n">
-        <v>2126634</v>
+        <v>733117</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2464,7 +2536,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>22.90.0.5</t>
+          <t>22.250.1.2</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -2472,39 +2544,39 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2023-08-06</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>292666</v>
+        <v>69883</v>
       </c>
       <c r="C70" t="n">
-        <v>435</v>
+        <v>84</v>
       </c>
       <c r="D70" t="n">
-        <v>169</v>
+        <v>33</v>
       </c>
       <c r="E70" t="n">
-        <v>341</v>
+        <v>238</v>
       </c>
       <c r="F70" t="n">
-        <v>293270</v>
+        <v>70000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9260 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>22.30.0.11</t>
+          <t>20.70.26.2</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -2512,39 +2584,39 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2021-08-08</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 22.250.1.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.19.1</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>684293</v>
+        <v>71102</v>
       </c>
       <c r="C71" t="n">
-        <v>954</v>
+        <v>93</v>
       </c>
       <c r="D71" t="n">
-        <v>423</v>
+        <v>25</v>
       </c>
       <c r="E71" t="n">
-        <v>828</v>
+        <v>88</v>
       </c>
       <c r="F71" t="n">
-        <v>685670</v>
+        <v>71220</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9260 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>22.250.1.2</t>
+          <t>20.70.19.1</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -2552,7 +2624,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2023-08-06</t>
+          <t>2020-09-14</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2635,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>23285</v>
+        <v>24394</v>
       </c>
       <c r="C72" t="n">
         <v>36</v>
@@ -2572,10 +2644,10 @@
         <v>16</v>
       </c>
       <c r="E72" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F72" t="n">
-        <v>23337</v>
+        <v>24446</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2599,32 +2671,32 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.26.2</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>68085</v>
+        <v>240434</v>
       </c>
       <c r="C73" t="n">
-        <v>74</v>
+        <v>421</v>
       </c>
       <c r="D73" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E73" t="n">
-        <v>234</v>
+        <v>409</v>
       </c>
       <c r="F73" t="n">
-        <v>68192</v>
+        <v>240892</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>20.70.26.2</t>
+          <t>23.100.0.4</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -2632,39 +2704,39 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>2021-08-08</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1012625</v>
+        <v>151287</v>
       </c>
       <c r="C74" t="n">
-        <v>1825</v>
+        <v>285</v>
       </c>
       <c r="D74" t="n">
-        <v>557</v>
+        <v>75</v>
       </c>
       <c r="E74" t="n">
-        <v>1157</v>
+        <v>332</v>
       </c>
       <c r="F74" t="n">
-        <v>1015007</v>
+        <v>151647</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9260 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>22.170.0.3</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -2672,39 +2744,39 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2022-08-28</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.19.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>65379</v>
+        <v>19655</v>
       </c>
       <c r="C75" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E75" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="F75" t="n">
-        <v>65489</v>
+        <v>19689</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>20.70.19.1</t>
+          <t>21.80.2.1</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -2712,39 +2784,39 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>140350</v>
+        <v>57999</v>
       </c>
       <c r="C76" t="n">
-        <v>270</v>
+        <v>19</v>
       </c>
       <c r="D76" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="E76" t="n">
-        <v>307</v>
+        <v>76</v>
       </c>
       <c r="F76" t="n">
-        <v>140695</v>
+        <v>58133</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -2752,39 +2824,39 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>57477</v>
+        <v>1833336</v>
       </c>
       <c r="C77" t="n">
-        <v>19</v>
+        <v>2376</v>
       </c>
       <c r="D77" t="n">
-        <v>115</v>
+        <v>656</v>
       </c>
       <c r="E77" t="n">
-        <v>75</v>
+        <v>1899</v>
       </c>
       <c r="F77" t="n">
-        <v>57611</v>
+        <v>1836368</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>22.0.0.6</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -2792,39 +2864,39 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2020-09-16</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>230530</v>
+        <v>1237156</v>
       </c>
       <c r="C78" t="n">
-        <v>421</v>
+        <v>2499</v>
       </c>
       <c r="D78" t="n">
-        <v>37</v>
+        <v>583</v>
       </c>
       <c r="E78" t="n">
-        <v>399</v>
+        <v>1951</v>
       </c>
       <c r="F78" t="n">
-        <v>230988</v>
+        <v>1240238</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>23.100.0.4</t>
+          <t>22.170.0.3</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -2832,7 +2904,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2022-08-28</t>
         </is>
       </c>
     </row>
@@ -2843,19 +2915,19 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>67722</v>
+        <v>67832</v>
       </c>
       <c r="C79" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F79" t="n">
-        <v>67843</v>
+        <v>67954</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2879,32 +2951,32 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>22202</v>
+        <v>23413</v>
       </c>
       <c r="C80" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D80" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E80" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F80" t="n">
-        <v>22255</v>
+        <v>23462</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9260 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>23.70.2.3</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -2912,39 +2984,39 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>361154</v>
+        <v>63994</v>
       </c>
       <c r="C81" t="n">
-        <v>415</v>
+        <v>66</v>
       </c>
       <c r="D81" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="E81" t="n">
-        <v>773</v>
+        <v>68</v>
       </c>
       <c r="F81" t="n">
-        <v>361719</v>
+        <v>64101</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9260 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>21.110.1.1</t>
+          <t>21.80.0.4</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -2952,30 +3024,30 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2020-01-29</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>95095</v>
+        <v>81417</v>
       </c>
       <c r="C82" t="n">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="D82" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E82" t="n">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="F82" t="n">
-        <v>95316</v>
+        <v>81549</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2984,7 +3056,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>22.60.0.6</t>
+          <t>22.80.0.9</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -2992,39 +3064,39 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.1.3</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1731609</v>
+        <v>28258</v>
       </c>
       <c r="C83" t="n">
-        <v>2149</v>
+        <v>45</v>
       </c>
       <c r="D83" t="n">
-        <v>656</v>
+        <v>20</v>
       </c>
       <c r="E83" t="n">
-        <v>1812</v>
+        <v>61</v>
       </c>
       <c r="F83" t="n">
-        <v>1734414</v>
+        <v>28323</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>22.0.0.6</t>
+          <t>23.90.1.3</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -3032,30 +3104,30 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2024-10-12</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.80.0.7</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2595641</v>
+        <v>2685584</v>
       </c>
       <c r="C84" t="n">
-        <v>4209</v>
+        <v>3688</v>
       </c>
       <c r="D84" t="n">
-        <v>1357</v>
+        <v>914</v>
       </c>
       <c r="E84" t="n">
-        <v>2665</v>
+        <v>5134</v>
       </c>
       <c r="F84" t="n">
-        <v>2601207</v>
+        <v>2690186</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3064,7 +3136,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>23.40.0.4</t>
+          <t>23.80.0.7</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -3072,39 +3144,39 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-09-01</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.0.4</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>329903</v>
+        <v>2891864</v>
       </c>
       <c r="C85" t="n">
-        <v>407</v>
+        <v>4678</v>
       </c>
       <c r="D85" t="n">
-        <v>147</v>
+        <v>1357</v>
       </c>
       <c r="E85" t="n">
-        <v>358</v>
+        <v>2882</v>
       </c>
       <c r="F85" t="n">
-        <v>330457</v>
+        <v>2897899</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9260 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>23.40.0.4</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -3112,30 +3184,30 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2024-03-09</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.20.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.60.1.2</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>10141912</v>
+        <v>12663105</v>
       </c>
       <c r="C86" t="n">
-        <v>11110</v>
+        <v>18946</v>
       </c>
       <c r="D86" t="n">
-        <v>10343</v>
+        <v>6330</v>
       </c>
       <c r="E86" t="n">
-        <v>13595</v>
+        <v>15512</v>
       </c>
       <c r="F86" t="n">
-        <v>10163365</v>
+        <v>12688381</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3144,7 +3216,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>21.20.1.1</t>
+          <t>23.60.1.2</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -3152,39 +3224,39 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2019-05-29</t>
+          <t>2024-06-02</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>19654</v>
+        <v>22202</v>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D87" t="n">
+        <v>35</v>
+      </c>
+      <c r="E87" t="n">
         <v>30</v>
       </c>
-      <c r="E87" t="n">
-        <v>36</v>
-      </c>
       <c r="F87" t="n">
-        <v>19688</v>
+        <v>22255</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wireless-ac 9260 160mhz</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>21.80.2.1</t>
+          <t>23.10.0.8</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -3192,30 +3264,30 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.60.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.20.1.1</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>12334650</v>
+        <v>10161220</v>
       </c>
       <c r="C88" t="n">
-        <v>18519</v>
+        <v>11110</v>
       </c>
       <c r="D88" t="n">
-        <v>6330</v>
+        <v>10343</v>
       </c>
       <c r="E88" t="n">
-        <v>15232</v>
+        <v>13613</v>
       </c>
       <c r="F88" t="n">
-        <v>12359499</v>
+        <v>10182673</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3224,7 +3296,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>23.60.1.2</t>
+          <t>21.20.1.1</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -3232,39 +3304,39 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2019-05-29</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.80.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2610107</v>
+        <v>301043</v>
       </c>
       <c r="C89" t="n">
-        <v>3372</v>
+        <v>388</v>
       </c>
       <c r="D89" t="n">
-        <v>914</v>
+        <v>146</v>
       </c>
       <c r="E89" t="n">
-        <v>4965</v>
+        <v>702</v>
       </c>
       <c r="F89" t="n">
-        <v>2614393</v>
+        <v>301577</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>23.80.0.7</t>
+          <t>21.120.0.9</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -3272,39 +3344,39 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>28258</v>
+        <v>1400496</v>
       </c>
       <c r="C90" t="n">
-        <v>45</v>
+        <v>2029</v>
       </c>
       <c r="D90" t="n">
-        <v>20</v>
+        <v>1075</v>
       </c>
       <c r="E90" t="n">
-        <v>61</v>
+        <v>3210</v>
       </c>
       <c r="F90" t="n">
-        <v>28323</v>
+        <v>1403600</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>23.90.1.3</t>
+          <t>22.0.1.1</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -3312,39 +3384,39 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2024-10-12</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.90.0.5</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>269204</v>
+        <v>2241225</v>
       </c>
       <c r="C91" t="n">
-        <v>337</v>
+        <v>2432</v>
       </c>
       <c r="D91" t="n">
-        <v>146</v>
+        <v>1297</v>
       </c>
       <c r="E91" t="n">
-        <v>632</v>
+        <v>2501</v>
       </c>
       <c r="F91" t="n">
-        <v>269687</v>
+        <v>2244954</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wireless-ac 9260 160mhz</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>21.120.0.9</t>
+          <t>22.90.0.5</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -3352,30 +3424,30 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1296766</v>
+        <v>393045</v>
       </c>
       <c r="C92" t="n">
-        <v>1864</v>
+        <v>453</v>
       </c>
       <c r="D92" t="n">
-        <v>1075</v>
+        <v>216</v>
       </c>
       <c r="E92" t="n">
-        <v>2887</v>
+        <v>1251</v>
       </c>
       <c r="F92" t="n">
-        <v>1299705</v>
+        <v>393714</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3384,7 +3456,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>22.0.1.1</t>
+          <t>21.80.2.1</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -3392,70 +3464,70 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>389283</v>
+        <v>272039</v>
       </c>
       <c r="C93" t="n">
-        <v>428</v>
+        <v>213</v>
       </c>
       <c r="D93" t="n">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="E93" t="n">
-        <v>1233</v>
+        <v>316</v>
       </c>
       <c r="F93" t="n">
-        <v>389927</v>
+        <v>272383</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>21.80.2.1</t>
+          <t>22.100.1.1</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>63994</v>
+        <v>509717</v>
       </c>
       <c r="C94" t="n">
-        <v>66</v>
+        <v>522</v>
       </c>
       <c r="D94" t="n">
-        <v>41</v>
+        <v>178</v>
       </c>
       <c r="E94" t="n">
-        <v>68</v>
+        <v>590</v>
       </c>
       <c r="F94" t="n">
-        <v>64101</v>
+        <v>510417</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3464,38 +3536,38 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>21.80.0.4</t>
+          <t>23.100.0.4</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>79835</v>
+        <v>11362</v>
       </c>
       <c r="C95" t="n">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="D95" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="F95" t="n">
-        <v>79953</v>
+        <v>11369</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3504,47 +3576,45 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>22.80.0.9</t>
+          <t>21.40.1.3</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>2021-08-18</t>
-        </is>
+      <c r="J95" t="n">
+        <v/>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>485568</v>
+        <v>161052</v>
       </c>
       <c r="C96" t="n">
-        <v>468</v>
+        <v>76</v>
       </c>
       <c r="D96" t="n">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="E96" t="n">
-        <v>568</v>
+        <v>197</v>
       </c>
       <c r="F96" t="n">
-        <v>486214</v>
+        <v>161158</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>23.100.0.4</t>
+          <t>20.70.12.5</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -3552,39 +3622,39 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2019-08-25</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>44133</v>
+        <v>198631</v>
       </c>
       <c r="C97" t="n">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="D97" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E97" t="n">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="F97" t="n">
-        <v>44160</v>
+        <v>198781</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>23.20.0.4</t>
+          <t>20.70.5.2</t>
         </is>
       </c>
       <c r="I97" t="n">
@@ -3592,30 +3662,30 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2018-11-25</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>108049</v>
+        <v>382558</v>
       </c>
       <c r="C98" t="n">
-        <v>63</v>
+        <v>421</v>
       </c>
       <c r="D98" t="n">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="E98" t="n">
-        <v>122</v>
+        <v>793</v>
       </c>
       <c r="F98" t="n">
-        <v>108115</v>
+        <v>383129</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3624,7 +3694,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>23.100.0.4</t>
+          <t>21.110.1.1</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -3632,39 +3702,39 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.5.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>184414</v>
+        <v>69513</v>
       </c>
       <c r="C99" t="n">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="F99" t="n">
-        <v>184564</v>
+        <v>69578</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>20.70.5.2</t>
+          <t>22.250.10.1</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -3672,39 +3742,39 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>2018-11-25</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4925727</v>
+        <v>16252</v>
       </c>
       <c r="C100" t="n">
-        <v>4589</v>
+        <v>12</v>
       </c>
       <c r="D100" t="n">
-        <v>1578</v>
+        <v>10</v>
       </c>
       <c r="E100" t="n">
-        <v>5803</v>
+        <v>43</v>
       </c>
       <c r="F100" t="n">
-        <v>4931894</v>
+        <v>16274</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>23.90.0.2</t>
+          <t>22.0.1.1</t>
         </is>
       </c>
       <c r="I100" t="n">
@@ -3712,39 +3782,39 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.12.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>154074</v>
+        <v>305670</v>
       </c>
       <c r="C101" t="n">
-        <v>71</v>
+        <v>304</v>
       </c>
       <c r="D101" t="n">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="E101" t="n">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="F101" t="n">
-        <v>154175</v>
+        <v>306081</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>20.70.12.5</t>
+          <t>22.190.0.4</t>
         </is>
       </c>
       <c r="I101" t="n">
@@ -3752,30 +3822,30 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>2019-08-25</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>286753</v>
+        <v>153442</v>
       </c>
       <c r="C102" t="n">
-        <v>288</v>
+        <v>67</v>
       </c>
       <c r="D102" t="n">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="E102" t="n">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="F102" t="n">
-        <v>287148</v>
+        <v>153573</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3784,7 +3854,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>22.190.0.4</t>
+          <t>22.200.0.6</t>
         </is>
       </c>
       <c r="I102" t="n">
@@ -3792,30 +3862,30 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2023-01-16</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>143738</v>
+        <v>348742</v>
       </c>
       <c r="C103" t="n">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="D103" t="n">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E103" t="n">
-        <v>187</v>
+        <v>467</v>
       </c>
       <c r="F103" t="n">
-        <v>143869</v>
+        <v>348943</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3824,7 +3894,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>22.200.0.6</t>
+          <t>22.230.0.8</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -3832,39 +3902,39 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-05-08</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1277</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>96477</v>
+        <v>42789</v>
       </c>
       <c r="C104" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D104" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F104" t="n">
-        <v>96526</v>
+        <v>42822</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>qualcomm fastconnect 6900 wi-fi 6e dual band simultaneous (dbs) wificx network adapter</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>22.160.0.4</t>
+          <t>2.0.0.1277</t>
         </is>
       </c>
       <c r="I104" t="n">
@@ -3872,39 +3942,39 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2024-11-18</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>15712</v>
+        <v>332850</v>
       </c>
       <c r="C105" t="n">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="D105" t="n">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="E105" t="n">
-        <v>42</v>
+        <v>438</v>
       </c>
       <c r="F105" t="n">
-        <v>15734</v>
+        <v>333066</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>22.0.1.1</t>
+          <t>22.10.0.7</t>
         </is>
       </c>
       <c r="I105" t="n">
@@ -3912,39 +3982,39 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.100.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>265066</v>
+        <v>78620</v>
       </c>
       <c r="C106" t="n">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="D106" t="n">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="E106" t="n">
-        <v>310</v>
+        <v>148</v>
       </c>
       <c r="F106" t="n">
-        <v>265400</v>
+        <v>78702</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>22.100.1.1</t>
+          <t>22.250.10.1</t>
         </is>
       </c>
       <c r="I106" t="n">
@@ -3952,39 +4022,39 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1277</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>41275</v>
+        <v>258775</v>
       </c>
       <c r="C107" t="n">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E107" t="n">
-        <v>74</v>
+        <v>380</v>
       </c>
       <c r="F107" t="n">
-        <v>41308</v>
+        <v>259123</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>qualcomm fastconnect 6900 wi-fi 6e dual band simultaneous (dbs) wificx network adapter</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2.0.0.1277</t>
+          <t>22.30.0.11</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -3992,39 +4062,39 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>69513</v>
+        <v>44133</v>
       </c>
       <c r="C108" t="n">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E108" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F108" t="n">
-        <v>69578</v>
+        <v>44160</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>22.250.10.1</t>
+          <t>23.20.0.4</t>
         </is>
       </c>
       <c r="I108" t="n">
@@ -4032,39 +4102,39 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>338679</v>
+        <v>650628</v>
       </c>
       <c r="C109" t="n">
-        <v>176</v>
+        <v>762</v>
       </c>
       <c r="D109" t="n">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="E109" t="n">
-        <v>460</v>
+        <v>1192</v>
       </c>
       <c r="F109" t="n">
-        <v>338880</v>
+        <v>651563</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>22.230.0.8</t>
+          <t>23.30.0.6</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -4072,39 +4142,39 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>18710</v>
+        <v>178769</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D110" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E110" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="F110" t="n">
-        <v>18721</v>
+        <v>178916</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>23.70.2.3</t>
+          <t>22.140.0.3</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -4112,39 +4182,39 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>90450</v>
+        <v>110173</v>
       </c>
       <c r="C111" t="n">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="D111" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E111" t="n">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="F111" t="n">
-        <v>90508</v>
+        <v>110270</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>21.40.2.2</t>
+          <t>22.130.0.5</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -4152,30 +4222,30 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>689001</v>
+        <v>101893</v>
       </c>
       <c r="C112" t="n">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="D112" t="n">
-        <v>730</v>
+        <v>15</v>
       </c>
       <c r="E112" t="n">
-        <v>955</v>
+        <v>157</v>
       </c>
       <c r="F112" t="n">
-        <v>689912</v>
+        <v>101951</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4184,7 +4254,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>21.110.1.1</t>
+          <t>22.120.0.3</t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -4192,30 +4262,30 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>122523</v>
+        <v>36982</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D113" t="n">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="E113" t="n">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="F113" t="n">
-        <v>122671</v>
+        <v>37001</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4224,7 +4294,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>21.110.3.2</t>
+          <t>21.110.2.1</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -4232,30 +4302,30 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-07-20</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>36772</v>
+        <v>125398</v>
       </c>
       <c r="C114" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="E114" t="n">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="F114" t="n">
-        <v>36791</v>
+        <v>125546</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4264,7 +4334,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>21.110.2.1</t>
+          <t>21.110.3.2</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -4272,39 +4342,39 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 23.50.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>787973</v>
+        <v>689001</v>
       </c>
       <c r="C115" t="n">
-        <v>407</v>
+        <v>181</v>
       </c>
       <c r="D115" t="n">
-        <v>170</v>
+        <v>730</v>
       </c>
       <c r="E115" t="n">
-        <v>914</v>
+        <v>955</v>
       </c>
       <c r="F115" t="n">
-        <v>788550</v>
+        <v>689912</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9260 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>23.50.0.6</t>
+          <t>21.110.1.1</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -4312,30 +4382,30 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>226727</v>
+        <v>4933506</v>
       </c>
       <c r="C116" t="n">
-        <v>14</v>
+        <v>4594</v>
       </c>
       <c r="D116" t="n">
-        <v>111</v>
+        <v>1578</v>
       </c>
       <c r="E116" t="n">
-        <v>382</v>
+        <v>5811</v>
       </c>
       <c r="F116" t="n">
-        <v>226852</v>
+        <v>4939678</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4344,7 +4414,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>23.90.0.2</t>
         </is>
       </c>
       <c r="I116" t="n">
@@ -4352,7 +4422,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
@@ -4399,32 +4469,32 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 23.60.1.2</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>636247</v>
+        <v>46616</v>
       </c>
       <c r="C118" t="n">
-        <v>708</v>
+        <v>19</v>
       </c>
       <c r="D118" t="n">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="E118" t="n">
-        <v>1160</v>
+        <v>100</v>
       </c>
       <c r="F118" t="n">
-        <v>637128</v>
+        <v>46645</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wireless-ac 9260 160mhz</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>23.30.0.6</t>
+          <t>23.60.1.2</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -4432,39 +4502,39 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2024-06-02</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>3651434</v>
+        <v>806409</v>
       </c>
       <c r="C119" t="n">
-        <v>3023</v>
+        <v>428</v>
       </c>
       <c r="D119" t="n">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="E119" t="n">
-        <v>4776</v>
+        <v>928</v>
       </c>
       <c r="F119" t="n">
-        <v>3654692</v>
+        <v>807007</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wireless-ac 9260 160mhz</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>22.160.0.4</t>
+          <t>23.50.0.6</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -4472,30 +4542,30 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2024-04-13</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 23.60.1.2</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>45183</v>
+        <v>112734</v>
       </c>
       <c r="C120" t="n">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D120" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E120" t="n">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="F120" t="n">
-        <v>45212</v>
+        <v>112825</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4504,7 +4574,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>23.60.1.2</t>
+          <t>23.100.0.4</t>
         </is>
       </c>
       <c r="I120" t="n">
@@ -4512,30 +4582,30 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>191891</v>
+        <v>213149</v>
       </c>
       <c r="C121" t="n">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="D121" t="n">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E121" t="n">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="F121" t="n">
-        <v>191994</v>
+        <v>213465</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4544,7 +4614,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>22.40.0.7</t>
+          <t>21.80.2.1</t>
         </is>
       </c>
       <c r="I121" t="n">
@@ -4552,39 +4622,39 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>244540</v>
+        <v>90450</v>
       </c>
       <c r="C122" t="n">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c r="D122" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E122" t="n">
-        <v>367</v>
+        <v>161</v>
       </c>
       <c r="F122" t="n">
-        <v>244856</v>
+        <v>90508</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>22.30.0.11</t>
+          <t>21.40.2.2</t>
         </is>
       </c>
       <c r="I122" t="n">
@@ -4592,39 +4662,39 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>78395</v>
+        <v>172561</v>
       </c>
       <c r="C123" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D123" t="n">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="E123" t="n">
-        <v>145</v>
+        <v>247</v>
       </c>
       <c r="F123" t="n">
-        <v>78477</v>
+        <v>172690</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>22.250.10.1</t>
+          <t>22.30.0.11</t>
         </is>
       </c>
       <c r="I123" t="n">
@@ -4632,30 +4702,30 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>211485</v>
+        <v>226727</v>
       </c>
       <c r="C124" t="n">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="D124" t="n">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="E124" t="n">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="F124" t="n">
-        <v>211798</v>
+        <v>226852</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4664,7 +4734,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>21.80.2.1</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I124" t="n">
@@ -4672,30 +4742,30 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>101893</v>
+        <v>3651434</v>
       </c>
       <c r="C125" t="n">
-        <v>43</v>
+        <v>3023</v>
       </c>
       <c r="D125" t="n">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c r="E125" t="n">
-        <v>157</v>
+        <v>4776</v>
       </c>
       <c r="F125" t="n">
-        <v>101951</v>
+        <v>3654692</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4704,7 +4774,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>22.120.0.3</t>
+          <t>22.160.0.4</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -4712,70 +4782,70 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>325299</v>
+        <v>13010</v>
       </c>
       <c r="C126" t="n">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="D126" t="n">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>426</v>
+        <v>12</v>
       </c>
       <c r="F126" t="n">
-        <v>325504</v>
+        <v>13016</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>22.10.0.7</t>
+          <t>21.30.4.1</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2019-07-29</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>178769</v>
+        <v>96719</v>
       </c>
       <c r="C127" t="n">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="D127" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E127" t="n">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="F127" t="n">
-        <v>178916</v>
+        <v>96740</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4784,38 +4854,38 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>22.140.0.3</t>
+          <t>21.120.0.9</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>73778</v>
+        <v>457565</v>
       </c>
       <c r="C128" t="n">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="D128" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E128" t="n">
-        <v>98</v>
+        <v>444</v>
       </c>
       <c r="F128" t="n">
-        <v>73817</v>
+        <v>457782</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4824,78 +4894,78 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>20.110.0.3</t>
+          <t>21.30.3.2</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>2018-11-27</t>
+          <t>2019-07-06</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.30.0.11</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>172561</v>
+        <v>36134</v>
       </c>
       <c r="C129" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D129" t="n">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="E129" t="n">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="F129" t="n">
-        <v>172690</v>
+        <v>36150</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>22.30.0.11</t>
+          <t>21.40.1.4</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2019-08-14</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>109196</v>
+        <v>140487</v>
       </c>
       <c r="C130" t="n">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="D130" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E130" t="n">
-        <v>170</v>
+        <v>409</v>
       </c>
       <c r="F130" t="n">
-        <v>109293</v>
+        <v>140512</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4904,38 +4974,38 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>22.130.0.5</t>
+          <t>21.40.2.2</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>69421</v>
+        <v>316372</v>
       </c>
       <c r="C131" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D131" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E131" t="n">
-        <v>110</v>
+        <v>424</v>
       </c>
       <c r="F131" t="n">
-        <v>69430</v>
+        <v>316471</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4944,7 +5014,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>21.70.0.6</t>
+          <t>21.50.1.1</t>
         </is>
       </c>
       <c r="I131" t="n">
@@ -4952,30 +5022,30 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>10450</v>
+        <v>72840</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E132" t="n">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="F132" t="n">
-        <v>10451</v>
+        <v>72854</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4984,36 +5054,38 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>21.80.2.3</t>
+          <t>21.70.0.6</t>
         </is>
       </c>
       <c r="I132" t="n">
         <v>100</v>
       </c>
-      <c r="J132" t="n">
-        <v/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>262466</v>
+        <v>11202</v>
       </c>
       <c r="C133" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="F133" t="n">
-        <v>262523</v>
+        <v>11203</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -5022,38 +5094,36 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>21.90.1.2</t>
+          <t>21.80.2.3</t>
         </is>
       </c>
       <c r="I133" t="n">
         <v>100</v>
       </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>2020-04-05</t>
-        </is>
+      <c r="J133" t="n">
+        <v/>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>25800</v>
+        <v>262466</v>
       </c>
       <c r="C134" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D134" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E134" t="n">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="F134" t="n">
-        <v>25808</v>
+        <v>262523</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -5062,7 +5132,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>22.100.0.3</t>
+          <t>21.90.1.2</t>
         </is>
       </c>
       <c r="I134" t="n">
@@ -5070,7 +5140,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2020-04-05</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5151,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>158235</v>
+        <v>159354</v>
       </c>
       <c r="C135" t="n">
         <v>4</v>
@@ -5090,10 +5160,10 @@
         <v>44</v>
       </c>
       <c r="E135" t="n">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F135" t="n">
-        <v>158283</v>
+        <v>159402</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -5117,23 +5187,23 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>196029</v>
+        <v>34683</v>
       </c>
       <c r="C136" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="F136" t="n">
-        <v>196098</v>
+        <v>34683</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -5142,7 +5212,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>21.0.0.5</t>
+          <t>22.190.0.4</t>
         </is>
       </c>
       <c r="I136" t="n">
@@ -5150,30 +5220,30 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1542699</v>
+        <v>461035</v>
       </c>
       <c r="C137" t="n">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="D137" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E137" t="n">
-        <v>1933</v>
+        <v>652</v>
       </c>
       <c r="F137" t="n">
-        <v>1543020</v>
+        <v>461179</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -5182,7 +5252,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>22.50.0.7</t>
+          <t>22.200.2.1</t>
         </is>
       </c>
       <c r="I137" t="n">
@@ -5190,39 +5260,39 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2023-03-08</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>75627</v>
+        <v>62512</v>
       </c>
       <c r="C138" t="n">
         <v>2</v>
       </c>
       <c r="D138" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E138" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="F138" t="n">
-        <v>75637</v>
+        <v>62516</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>22.70.0.6</t>
+          <t>21.10.1.2</t>
         </is>
       </c>
       <c r="I138" t="n">
@@ -5230,39 +5300,39 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2019-04-23</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>52511</v>
+        <v>25800</v>
       </c>
       <c r="C139" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E139" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F139" t="n">
-        <v>52515</v>
+        <v>25808</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>21.10.1.2</t>
+          <t>22.100.0.3</t>
         </is>
       </c>
       <c r="I139" t="n">
@@ -5270,39 +5340,39 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>13010</v>
+        <v>108902</v>
       </c>
       <c r="C140" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="F140" t="n">
-        <v>13016</v>
+        <v>108902</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>21.30.4.1</t>
+          <t>20.100.0.4</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -5310,39 +5380,39 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2018-10-31</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>26239</v>
+        <v>84618</v>
       </c>
       <c r="C141" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E141" t="n">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="F141" t="n">
-        <v>26241</v>
+        <v>84657</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>21.60.2.1</t>
+          <t>20.110.0.3</t>
         </is>
       </c>
       <c r="I141" t="n">
@@ -5350,30 +5420,30 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2018-11-27</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>191867</v>
+        <v>200350</v>
       </c>
       <c r="C142" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D142" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E142" t="n">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="F142" t="n">
-        <v>191877</v>
+        <v>200419</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -5382,7 +5452,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>21.0.1.1</t>
+          <t>21.0.0.5</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -5390,30 +5460,30 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>2019-03-24</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>116698</v>
+        <v>192145</v>
       </c>
       <c r="C143" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D143" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E143" t="n">
-        <v>305</v>
+        <v>162</v>
       </c>
       <c r="F143" t="n">
-        <v>116738</v>
+        <v>192155</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -5422,7 +5492,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>21.10.0.5</t>
+          <t>21.0.1.1</t>
         </is>
       </c>
       <c r="I143" t="n">
@@ -5430,30 +5500,30 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>2019-04-06</t>
+          <t>2019-03-24</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>546747</v>
+        <v>116698</v>
       </c>
       <c r="C144" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E144" t="n">
-        <v>428</v>
+        <v>305</v>
       </c>
       <c r="F144" t="n">
-        <v>546751</v>
+        <v>116738</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -5462,7 +5532,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>21.10.1.2</t>
+          <t>21.10.0.5</t>
         </is>
       </c>
       <c r="I144" t="n">
@@ -5470,30 +5540,30 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
+          <t>2019-04-06</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>63355</v>
+        <v>546747</v>
       </c>
       <c r="C145" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>114</v>
+        <v>428</v>
       </c>
       <c r="F145" t="n">
-        <v>63373</v>
+        <v>546751</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -5502,36 +5572,38 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>21.10.2.2</t>
+          <t>21.10.1.2</t>
         </is>
       </c>
       <c r="I145" t="n">
         <v>100</v>
       </c>
-      <c r="J145" t="n">
-        <v/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>2019-08-10</t>
+        </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>96706</v>
+        <v>212458</v>
       </c>
       <c r="C146" t="n">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="D146" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E146" t="n">
-        <v>195</v>
+        <v>391</v>
       </c>
       <c r="F146" t="n">
-        <v>96727</v>
+        <v>212561</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -5540,7 +5612,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>21.120.0.9</t>
+          <t>22.40.0.7</t>
         </is>
       </c>
       <c r="I146" t="n">
@@ -5548,30 +5620,30 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>451424</v>
+        <v>1576605</v>
       </c>
       <c r="C147" t="n">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="D147" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E147" t="n">
-        <v>433</v>
+        <v>1957</v>
       </c>
       <c r="F147" t="n">
-        <v>451638</v>
+        <v>1576933</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5580,7 +5652,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>21.30.3.2</t>
+          <t>22.50.0.7</t>
         </is>
       </c>
       <c r="I147" t="n">
@@ -5588,30 +5660,30 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>2019-07-06</t>
+          <t>2021-04-18</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>34702</v>
+        <v>75627</v>
       </c>
       <c r="C148" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E148" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="F148" t="n">
-        <v>34718</v>
+        <v>75637</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5620,7 +5692,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>21.40.1.4</t>
+          <t>22.70.0.6</t>
         </is>
       </c>
       <c r="I148" t="n">
@@ -5628,30 +5700,30 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>140487</v>
+        <v>116173</v>
       </c>
       <c r="C149" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>409</v>
+        <v>99</v>
       </c>
       <c r="F149" t="n">
-        <v>140512</v>
+        <v>116173</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5660,7 +5732,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>21.40.2.2</t>
+          <t>22.80.1.1</t>
         </is>
       </c>
       <c r="I149" t="n">
@@ -5668,30 +5740,30 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>310612</v>
+        <v>97109</v>
       </c>
       <c r="C150" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D150" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E150" t="n">
-        <v>420</v>
+        <v>116</v>
       </c>
       <c r="F150" t="n">
-        <v>310711</v>
+        <v>97122</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5700,7 +5772,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>21.50.1.1</t>
+          <t>23.10.0.8</t>
         </is>
       </c>
       <c r="I150" t="n">
@@ -5708,39 +5780,39 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 23.20.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>32457</v>
+        <v>79831</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E151" t="n">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="F151" t="n">
-        <v>32457</v>
+        <v>79843</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9260 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>23.20.1.1</t>
+          <t>23.110.0.5</t>
         </is>
       </c>
       <c r="I151" t="n">
@@ -5748,30 +5820,30 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2025-01-01</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>27283</v>
+        <v>66711</v>
       </c>
       <c r="C152" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D152" t="n">
         <v>3</v>
       </c>
       <c r="E152" t="n">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="F152" t="n">
-        <v>27295</v>
+        <v>66730</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5780,47 +5852,45 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>23.50.0.6</t>
+          <t>21.10.2.2</t>
         </is>
       </c>
       <c r="I152" t="n">
         <v>100</v>
       </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>2024-04-13</t>
-        </is>
+      <c r="J152" t="n">
+        <v/>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>52231</v>
+        <v>19347</v>
       </c>
       <c r="C153" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="F153" t="n">
-        <v>52237</v>
+        <v>19347</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wireless-ac 9260 160mhz</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>23.70.4.1</t>
+          <t>23.120.0.3</t>
         </is>
       </c>
       <c r="I153" t="n">
@@ -5828,18 +5898,18 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 23.20.1.1</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>31330</v>
+        <v>32457</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -5848,19 +5918,19 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F154" t="n">
-        <v>31330</v>
+        <v>32457</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wireless-ac 9260 160mhz</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>22.190.0.4</t>
+          <t>23.20.1.1</t>
         </is>
       </c>
       <c r="I154" t="n">
@@ -5868,39 +5938,39 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2023-12-19</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 23.80.0.7</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>459127</v>
+        <v>136610</v>
       </c>
       <c r="C155" t="n">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="D155" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E155" t="n">
-        <v>645</v>
+        <v>220</v>
       </c>
       <c r="F155" t="n">
-        <v>459268</v>
+        <v>136645</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wireless-ac 9260 160mhz</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>22.200.2.1</t>
+          <t>23.80.0.7</t>
         </is>
       </c>
       <c r="I155" t="n">
@@ -5908,39 +5978,39 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2024-09-01</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 23.80.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>136610</v>
+        <v>27993</v>
       </c>
       <c r="C156" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D156" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E156" t="n">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="F156" t="n">
-        <v>136645</v>
+        <v>28005</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9260 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>23.80.0.7</t>
+          <t>23.50.0.6</t>
         </is>
       </c>
       <c r="I156" t="n">
@@ -5948,30 +6018,30 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2024-04-13</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>108823</v>
+        <v>52231</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="F157" t="n">
-        <v>108823</v>
+        <v>52237</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -5980,7 +6050,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>20.100.0.4</t>
+          <t>23.70.4.1</t>
         </is>
       </c>
       <c r="I157" t="n">
@@ -5988,30 +6058,30 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>2018-10-31</t>
+          <t>2024-08-13</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 22.180.0.4</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>98020</v>
+        <v>34662</v>
       </c>
       <c r="C158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="F158" t="n">
-        <v>98032</v>
+        <v>34662</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -6020,7 +6090,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>22.180.0.4</t>
+          <t>22.130.0.5</t>
         </is>
       </c>
       <c r="I158" t="n">
@@ -6028,39 +6098,39 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>106139</v>
+        <v>59657</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E159" t="n">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F159" t="n">
-        <v>106139</v>
+        <v>59670</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wireless-ac 9260 160mhz</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>22.80.1.1</t>
+          <t>22.160.0.4</t>
         </is>
       </c>
       <c r="I159" t="n">
@@ -6068,39 +6138,39 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.180.0.4</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>97109</v>
+        <v>102217</v>
       </c>
       <c r="C160" t="n">
+        <v>2</v>
+      </c>
+      <c r="D160" t="n">
         <v>10</v>
       </c>
-      <c r="D160" t="n">
-        <v>3</v>
-      </c>
       <c r="E160" t="n">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="F160" t="n">
-        <v>97122</v>
+        <v>102229</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wireless-ac 9260 160mhz</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>22.180.0.4</t>
         </is>
       </c>
       <c r="I160" t="n">
@@ -6108,39 +6178,39 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2022-10-17</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.240.0.6</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>69333</v>
+        <v>105888</v>
       </c>
       <c r="C161" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D161" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E161" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F161" t="n">
-        <v>69345</v>
+        <v>105904</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wireless-ac 9260 160mhz</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>23.110.0.5</t>
+          <t>22.240.0.6</t>
         </is>
       </c>
       <c r="I161" t="n">
@@ -6148,39 +6218,39 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2023-06-17</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 22.240.0.6</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>100138</v>
+        <v>35502</v>
       </c>
       <c r="C162" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="F162" t="n">
-        <v>100154</v>
+        <v>35502</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9260 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>22.240.0.6</t>
+          <t>20.70.9.1</t>
         </is>
       </c>
       <c r="I162" t="n">
@@ -6188,39 +6258,39 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>2023-06-17</t>
+          <t>2019-04-28</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>103047</v>
+        <v>52091</v>
       </c>
       <c r="C163" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E163" t="n">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="F163" t="n">
-        <v>103056</v>
+        <v>52096</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9260 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>22.40.0.7</t>
+          <t>22.0.1.1</t>
         </is>
       </c>
       <c r="I163" t="n">
@@ -6228,30 +6298,30 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>17976</v>
+        <v>103436</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E164" t="n">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="F164" t="n">
-        <v>17976</v>
+        <v>103445</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -6260,7 +6330,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>23.120.0.3</t>
+          <t>22.40.0.7</t>
         </is>
       </c>
       <c r="I164" t="n">
@@ -6268,7 +6338,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6349,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>55058</v>
+        <v>57721</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -6288,10 +6358,10 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F165" t="n">
-        <v>55058</v>
+        <v>57721</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -6315,32 +6385,32 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 21.60.0.5</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>48535</v>
+        <v>54452</v>
       </c>
       <c r="C166" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F166" t="n">
-        <v>48540</v>
+        <v>54452</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wireless-ac 9260 160mhz</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>20.70.8.1</t>
+          <t>21.60.0.5</t>
         </is>
       </c>
       <c r="I166" t="n">
@@ -6348,18 +6418,18 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>2019-03-16</t>
+          <t>2019-11-10</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.9.1</t>
+          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1216</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>34065</v>
+        <v>38321</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
@@ -6368,19 +6438,19 @@
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F167" t="n">
-        <v>34065</v>
+        <v>38321</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>mediatek mt7921 wi-fi 6 802.11ax pcie adapter</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>20.70.9.1</t>
+          <t>3.0.1.1216</t>
         </is>
       </c>
       <c r="I167" t="n">
@@ -6388,39 +6458,39 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>2019-04-28</t>
+          <t>2021-12-23</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 22.0.1.1</t>
+          <t>MediaTek Wi-Fi 6 MT7921 Wireless LAN Card - 22.30.1.1339</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>52091</v>
+        <v>10921</v>
       </c>
       <c r="C168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="F168" t="n">
-        <v>52096</v>
+        <v>10923</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>mediatek wi-fi 6 mt7921 wireless lan card</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>22.0.1.1</t>
+          <t>22.30.1.1339</t>
         </is>
       </c>
       <c r="I168" t="n">
@@ -6428,39 +6498,39 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2022-08-18</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 21.60.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.8.1</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>54452</v>
+        <v>48535</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F169" t="n">
-        <v>54452</v>
+        <v>48540</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9260 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>21.60.0.5</t>
+          <t>20.70.8.1</t>
         </is>
       </c>
       <c r="I169" t="n">
@@ -6468,39 +6538,39 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>2019-11-10</t>
+          <t>2019-03-16</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>116833</v>
+        <v>23761</v>
       </c>
       <c r="C170" t="n">
+        <v>4</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
         <v>29</v>
       </c>
-      <c r="D170" t="n">
-        <v>17</v>
-      </c>
-      <c r="E170" t="n">
-        <v>164</v>
-      </c>
       <c r="F170" t="n">
-        <v>116879</v>
+        <v>23765</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9260 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>22.120.0.3</t>
+          <t>20.30.1.2</t>
         </is>
       </c>
       <c r="I170" t="n">
@@ -6508,18 +6578,18 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2018-01-09</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>34662</v>
+        <v>14221</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -6528,19 +6598,19 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F171" t="n">
-        <v>34662</v>
+        <v>14221</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9260 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>22.130.0.5</t>
+          <t>20.50.0.4</t>
         </is>
       </c>
       <c r="I171" t="n">
@@ -6548,39 +6618,39 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2018-05-08</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9260 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>56281</v>
+        <v>20220</v>
       </c>
       <c r="C172" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D172" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E172" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="F172" t="n">
-        <v>56294</v>
+        <v>20227</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9260 160mhz</t>
+          <t>intel(r) dual band wireless-ac 8265</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>22.160.0.4</t>
+          <t>20.70.10.2</t>
         </is>
       </c>
       <c r="I172" t="n">
@@ -6588,30 +6658,30 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2019-05-11</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.10.2</t>
+          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>20220</v>
+        <v>161852</v>
       </c>
       <c r="C173" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D173" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E173" t="n">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="F173" t="n">
-        <v>20227</v>
+        <v>161874</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -6620,7 +6690,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>20.70.10.2</t>
+          <t>20.70.11.3</t>
         </is>
       </c>
       <c r="I173" t="n">
@@ -6628,39 +6698,39 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>2019-05-11</t>
+          <t>2019-09-05</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.70.11.3</t>
+          <t>Intel(R) Wireless-AC 9260 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>161852</v>
+        <v>128655</v>
       </c>
       <c r="C174" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D174" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E174" t="n">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="F174" t="n">
-        <v>161874</v>
+        <v>128701</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wireless-ac 9260 160mhz</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>20.70.11.3</t>
+          <t>22.120.0.3</t>
         </is>
       </c>
       <c r="I174" t="n">
@@ -6668,39 +6738,39 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>2019-09-05</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>MediaTek MT7921 Wi-Fi 6 802.11ax PCIe Adapter - 3.0.1.1216</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>36106</v>
+        <v>26239</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F175" t="n">
-        <v>36106</v>
+        <v>26241</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>mediatek mt7921 wi-fi 6 802.11ax pcie adapter</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>3.0.1.1216</t>
+          <t>21.60.2.1</t>
         </is>
       </c>
       <c r="I175" t="n">
@@ -6708,7 +6778,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>2021-12-23</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
@@ -6755,32 +6825,32 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.30.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>23761</v>
+        <v>104290</v>
       </c>
       <c r="C177" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E177" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="F177" t="n">
-        <v>23765</v>
+        <v>104341</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>20.30.1.2</t>
+          <t>22.160.0.4</t>
         </is>
       </c>
       <c r="I177" t="n">
@@ -6788,39 +6858,39 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>2018-01-09</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Intel(R) Dual Band Wireless-AC 8265 - 20.50.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>14221</v>
+        <v>67098</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E178" t="n">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="F178" t="n">
-        <v>14221</v>
+        <v>67111</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>intel(r) dual band wireless-ac 8265</t>
+          <t>intel(r) wi-fi 6 ax200 160mhz</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>20.50.0.4</t>
+          <t>22.30.0.11</t>
         </is>
       </c>
       <c r="I178" t="n">
@@ -6828,39 +6898,39 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>2018-05-08</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
+          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1229</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>14487</v>
+        <v>309352</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E179" t="n">
-        <v>57</v>
+        <v>386</v>
       </c>
       <c r="F179" t="n">
-        <v>14487</v>
+        <v>309492</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6e ax211 160mhz</t>
+          <t>qualcomm fastconnect 6900 wi-fi 6e dual band simultaneous (dbs) wificx network adapter</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>22.150.0.3</t>
+          <t>2.0.0.1229</t>
         </is>
       </c>
       <c r="I179" t="n">
@@ -6868,18 +6938,18 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2024-08-26</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.0.3</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>11140</v>
+        <v>14561</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
@@ -6891,7 +6961,7 @@
         <v>59</v>
       </c>
       <c r="F180" t="n">
-        <v>11140</v>
+        <v>14561</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -6900,7 +6970,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>22.150.3.1</t>
+          <t>22.150.0.3</t>
         </is>
       </c>
       <c r="I180" t="n">
@@ -6908,39 +6978,39 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-05-23</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Qualcomm FastConnect 6900 Wi-Fi 6E Dual Band Simultaneous (DBS) WiFiCx Network Adapter - 2.0.0.1229</t>
+          <t>Intel(R) Wi-Fi 6E AX211 160MHz - 22.150.3.1</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>305446</v>
+        <v>12018</v>
       </c>
       <c r="C181" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>381</v>
+        <v>61</v>
       </c>
       <c r="F181" t="n">
-        <v>305586</v>
+        <v>12018</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>qualcomm fastconnect 6900 wi-fi 6e dual band simultaneous (dbs) wificx network adapter</t>
+          <t>intel(r) wi-fi 6e ax211 160mhz</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>2.0.0.1229</t>
+          <t>22.150.3.1</t>
         </is>
       </c>
       <c r="I181" t="n">
@@ -6948,39 +7018,39 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>2024-08-26</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>67098</v>
+        <v>75454</v>
       </c>
       <c r="C182" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D182" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E182" t="n">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="F182" t="n">
-        <v>67111</v>
+        <v>75457</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax200 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>22.30.0.11</t>
+          <t>21.110.3.2</t>
         </is>
       </c>
       <c r="I182" t="n">
@@ -6988,30 +7058,30 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>65422</v>
+        <v>56003</v>
       </c>
       <c r="C183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E183" t="n">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F183" t="n">
-        <v>65425</v>
+        <v>56018</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -7020,7 +7090,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>21.110.3.2</t>
+          <t>21.60.2.1</t>
         </is>
       </c>
       <c r="I183" t="n">
@@ -7028,30 +7098,30 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>11124</v>
+        <v>121310</v>
       </c>
       <c r="C184" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E184" t="n">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="F184" t="n">
-        <v>11128</v>
+        <v>121350</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -7060,36 +7130,38 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>21.40.1.3</t>
+          <t>21.70.0.6</t>
         </is>
       </c>
       <c r="I184" t="n">
         <v>100</v>
       </c>
-      <c r="J184" t="n">
-        <v/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>56003</v>
+        <v>35363</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D185" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E185" t="n">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F185" t="n">
-        <v>56018</v>
+        <v>35377</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -7098,93 +7170,13 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>21.60.2.1</t>
+          <t>22.50.1.1</t>
         </is>
       </c>
       <c r="I185" t="n">
         <v>100</v>
       </c>
       <c r="J185" t="inlineStr">
-        <is>
-          <t>2019-12-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>117615</v>
-      </c>
-      <c r="C186" t="n">
-        <v>24</v>
-      </c>
-      <c r="D186" t="n">
-        <v>14</v>
-      </c>
-      <c r="E186" t="n">
-        <v>151</v>
-      </c>
-      <c r="F186" t="n">
-        <v>117653</v>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>21.70.0.6</t>
-        </is>
-      </c>
-      <c r="I186" t="n">
-        <v>100</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
-        </is>
-      </c>
-      <c r="B187" t="n">
-        <v>35341</v>
-      </c>
-      <c r="C187" t="n">
-        <v>11</v>
-      </c>
-      <c r="D187" t="n">
-        <v>3</v>
-      </c>
-      <c r="E187" t="n">
-        <v>80</v>
-      </c>
-      <c r="F187" t="n">
-        <v>35355</v>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
-        </is>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>22.50.1.1</t>
-        </is>
-      </c>
-      <c r="I187" t="n">
-        <v>100</v>
-      </c>
-      <c r="J187" t="inlineStr">
         <is>
           <t>2021-04-27</t>
         </is>
